--- a/Inputdata econ.xlsx
+++ b/Inputdata econ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C043BB-DFE8-4C10-8EA0-984B341EFFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC7352-4E36-4961-930D-EFEE410CC665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="21600" windowHeight="11295" tabRatio="659" activeTab="1" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
+    <workbookView xWindow="16560" yWindow="0" windowWidth="12345" windowHeight="15585" tabRatio="659" activeTab="1" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="234">
   <si>
     <t>General input far offshore green hydrogen supply chain optimization</t>
   </si>
@@ -1535,6 +1535,21 @@
   </si>
   <si>
     <t>East Chinese Sea</t>
+  </si>
+  <si>
+    <t>USD/kg</t>
+  </si>
+  <si>
+    <t>USD/ton</t>
+  </si>
+  <si>
+    <t>at 1000 km</t>
+  </si>
+  <si>
+    <t>at 500 tH2 per day</t>
+  </si>
+  <si>
+    <t>[eur/tonkm]</t>
   </si>
 </sst>
 </file>
@@ -2353,7 +2368,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7074,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248BE2C-4A37-440D-BBBC-E1B089756B68}">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7083,7 +7098,10 @@
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="31" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -7131,6 +7149,12 @@
       <c r="W4" t="s">
         <v>27</v>
       </c>
+      <c r="Z4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7174,6 +7198,17 @@
         <f>Q12*B7</f>
         <v>979800</v>
       </c>
+      <c r="Y5">
+        <v>2020</v>
+      </c>
+      <c r="Z5">
+        <f>1666000*B7</f>
+        <v>19992000</v>
+      </c>
+      <c r="AA5">
+        <f>135000*B7</f>
+        <v>1620000</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
@@ -7197,6 +7232,17 @@
         <f>W5*B9</f>
         <v>340800</v>
       </c>
+      <c r="Y6">
+        <v>2035</v>
+      </c>
+      <c r="Z6">
+        <f>Z5*B9</f>
+        <v>6953739.1304347822</v>
+      </c>
+      <c r="AA6">
+        <f>AA5*B9</f>
+        <v>563478.26086956519</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -7229,6 +7275,17 @@
       <c r="W7">
         <f>W6*B11</f>
         <v>170400</v>
+      </c>
+      <c r="Y7">
+        <v>2050</v>
+      </c>
+      <c r="Z7">
+        <f>Z6*B11</f>
+        <v>3476869.5652173911</v>
+      </c>
+      <c r="AA7">
+        <f>AA6*B11</f>
+        <v>281739.13043478259</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -26007,8 +26064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C564601C-500D-4B4B-904B-C7AE5D5459AC}">
   <dimension ref="A1:AG172"/>
   <sheetViews>
-    <sheetView topLeftCell="Q138" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34754,12 +34811,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>44</v>
       </c>
@@ -34767,12 +34824,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>148</v>
       </c>
@@ -34786,7 +34843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>45</v>
       </c>
@@ -34801,8 +34858,15 @@
       <c r="D142" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <f>(0.2+0.7)/2</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I142" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
         <f>B142/B6</f>
         <v>261.11111111111114</v>
@@ -34814,6 +34878,19 @@
       <c r="D143" t="s">
         <v>122</v>
       </c>
+      <c r="H143">
+        <f>H142/1000</f>
+        <v>4.4999999999999993E-4</v>
+      </c>
+      <c r="I143" t="s">
+        <v>230</v>
+      </c>
+      <c r="J143" t="s">
+        <v>231</v>
+      </c>
+      <c r="K143" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -34825,6 +34902,9 @@
       </c>
       <c r="C145" t="s">
         <v>150</v>
+      </c>
+      <c r="D145" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.25">
@@ -50429,12 +50509,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F55467E21B67B45A103D81F13D91C27" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7ac8f59c42c05cf5cbd548b0362af564">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0764678-775e-4b3a-9581-a9313f21c0ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1db46833b09b12d07fc9b351fd6923d" ns3:_="">
     <xsd:import namespace="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
@@ -50566,6 +50640,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75DC9A7-280D-43AE-914F-3C97FF60230F}">
   <ds:schemaRefs>
@@ -50575,22 +50655,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E322B84F-BC2B-4CCC-AC01-009FF4B401AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577653DF-BA89-4200-B906-63F73BB80659}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50606,4 +50670,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E322B84F-BC2B-4CCC-AC01-009FF4B401AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Inputdata econ.xlsx
+++ b/Inputdata econ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC7352-4E36-4961-930D-EFEE410CC665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A6FBA0-3914-4CD3-9A8B-B35509A6DE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="0" windowWidth="12345" windowHeight="15585" tabRatio="659" activeTab="1" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
+    <workbookView xWindow="16950" yWindow="3330" windowWidth="10890" windowHeight="11295" tabRatio="659" firstSheet="5" activeTab="6" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -2367,8 +2367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF1995-AAE9-47B2-9107-0FDDA5B0CC19}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7089,8 +7089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248BE2C-4A37-440D-BBBC-E1B089756B68}">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="AC9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26064,8 +26064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C564601C-500D-4B4B-904B-C7AE5D5459AC}">
   <dimension ref="A1:AG172"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35740,8 +35740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF286993-A1AD-471A-9E00-B022976E03B8}">
   <dimension ref="A1:AG180"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50500,15 +50500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F55467E21B67B45A103D81F13D91C27" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7ac8f59c42c05cf5cbd548b0362af564">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0764678-775e-4b3a-9581-a9313f21c0ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1db46833b09b12d07fc9b351fd6923d" ns3:_="">
     <xsd:import namespace="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
@@ -50640,6 +50631,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -50647,14 +50647,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75DC9A7-280D-43AE-914F-3C97FF60230F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577653DF-BA89-4200-B906-63F73BB80659}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50668,6 +50660,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75DC9A7-280D-43AE-914F-3C97FF60230F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Inputdata econ.xlsx
+++ b/Inputdata econ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54853F82-748D-49D9-95A7-D0A7308EC5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3395E720-878D-4395-812C-A845A8CB8E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="659" activeTab="1" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
+    <workbookView xWindow="14955" yWindow="0" windowWidth="13950" windowHeight="15585" tabRatio="659" firstSheet="10" activeTab="10" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,12 +1650,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2691,8 +2685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BF2731-C1BE-4102-92A2-D2E64F19F1BE}">
   <dimension ref="A1:AG83"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,485 +5748,113 @@
       <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="3">
-        <f>_xlfn.FORECAST.LINEAR(C72,$B$9:$B$10,$E$9:$E$10)</f>
-        <v>6067.2727272727207</v>
-      </c>
-      <c r="D73" s="3">
-        <f t="shared" ref="D73:M73" si="24">_xlfn.FORECAST.LINEAR(D72,$B$9:$B$10,$E$9:$E$10)</f>
-        <v>6006.5999999999913</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="24"/>
-        <v>5945.9272727272619</v>
-      </c>
-      <c r="F73" s="3">
-        <f t="shared" si="24"/>
-        <v>5885.2545454545325</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" si="24"/>
-        <v>5824.5818181818177</v>
-      </c>
-      <c r="H73" s="3">
-        <f t="shared" si="24"/>
-        <v>5763.9090909090883</v>
-      </c>
-      <c r="I73" s="3">
-        <f t="shared" si="24"/>
-        <v>5703.2363636363589</v>
-      </c>
-      <c r="J73" s="3">
-        <f t="shared" si="24"/>
-        <v>5642.5636363636295</v>
-      </c>
-      <c r="K73" s="3">
-        <f t="shared" si="24"/>
-        <v>5581.8909090909001</v>
-      </c>
-      <c r="L73" s="3">
-        <f t="shared" si="24"/>
-        <v>5521.2181818181707</v>
-      </c>
-      <c r="M73" s="3">
-        <f t="shared" si="24"/>
-        <v>5460.5454545454413</v>
-      </c>
-      <c r="N73" s="3">
-        <f>_xlfn.FORECAST.LINEAR(N72,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>5324.0318181818584</v>
-      </c>
-      <c r="O73" s="3">
-        <f t="shared" ref="O73:AG73" si="25">_xlfn.FORECAST.LINEAR(O72,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>5187.5181818182464</v>
-      </c>
-      <c r="P73" s="3">
-        <f t="shared" si="25"/>
-        <v>5051.0045454545761</v>
-      </c>
-      <c r="Q73" s="3">
-        <f t="shared" si="25"/>
-        <v>4914.4909090909641</v>
-      </c>
-      <c r="R73" s="3">
-        <f t="shared" si="25"/>
-        <v>4777.9772727272939</v>
-      </c>
-      <c r="S73" s="3">
-        <f t="shared" si="25"/>
-        <v>4641.4636363636819</v>
-      </c>
-      <c r="T73" s="3">
-        <f t="shared" si="25"/>
-        <v>4504.9500000000698</v>
-      </c>
-      <c r="U73" s="3">
-        <f t="shared" si="25"/>
-        <v>4368.4363636363996</v>
-      </c>
-      <c r="V73" s="3">
-        <f t="shared" si="25"/>
-        <v>4231.9227272727876</v>
-      </c>
-      <c r="W73" s="3">
-        <f t="shared" si="25"/>
-        <v>4095.4090909091174</v>
-      </c>
-      <c r="X73" s="3">
-        <f t="shared" si="25"/>
-        <v>3958.8954545455053</v>
-      </c>
-      <c r="Y73" s="3">
-        <f t="shared" si="25"/>
-        <v>3822.3818181818933</v>
-      </c>
-      <c r="Z73" s="3">
-        <f t="shared" si="25"/>
-        <v>3685.8681818182231</v>
-      </c>
-      <c r="AA73" s="3">
-        <f t="shared" si="25"/>
-        <v>3549.3545454546111</v>
-      </c>
-      <c r="AB73" s="3">
-        <f t="shared" si="25"/>
-        <v>3412.8409090909408</v>
-      </c>
-      <c r="AC73" s="3">
-        <f t="shared" si="25"/>
-        <v>3276.3272727273288</v>
-      </c>
-      <c r="AD73" s="3">
-        <f t="shared" si="25"/>
-        <v>3139.8136363636586</v>
-      </c>
-      <c r="AE73" s="3">
-        <f t="shared" si="25"/>
-        <v>3003.3000000000466</v>
-      </c>
-      <c r="AF73" s="3">
-        <f t="shared" si="25"/>
-        <v>2866.7863636364345</v>
-      </c>
-      <c r="AG73" s="3">
-        <f t="shared" si="25"/>
-        <v>2730.2727272727643</v>
-      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="3">
-        <v>30</v>
-      </c>
-      <c r="D74" s="3">
-        <v>30</v>
-      </c>
-      <c r="E74" s="3">
-        <v>30</v>
-      </c>
-      <c r="F74" s="3">
-        <v>30</v>
-      </c>
-      <c r="G74" s="3">
-        <v>30</v>
-      </c>
-      <c r="H74" s="3">
-        <v>30</v>
-      </c>
-      <c r="I74" s="3">
-        <v>30</v>
-      </c>
-      <c r="J74" s="3">
-        <v>30</v>
-      </c>
-      <c r="K74" s="3">
-        <v>30</v>
-      </c>
-      <c r="L74" s="3">
-        <v>30</v>
-      </c>
-      <c r="M74" s="3">
-        <v>30</v>
-      </c>
-      <c r="N74" s="3">
-        <v>30</v>
-      </c>
-      <c r="O74" s="3">
-        <v>30</v>
-      </c>
-      <c r="P74" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>30</v>
-      </c>
-      <c r="R74" s="3">
-        <v>30</v>
-      </c>
-      <c r="S74" s="3">
-        <v>30</v>
-      </c>
-      <c r="T74" s="3">
-        <v>30</v>
-      </c>
-      <c r="U74" s="3">
-        <v>30</v>
-      </c>
-      <c r="V74" s="3">
-        <v>30</v>
-      </c>
-      <c r="W74" s="3">
-        <v>30</v>
-      </c>
-      <c r="X74" s="3">
-        <v>30</v>
-      </c>
-      <c r="Y74" s="3">
-        <v>30</v>
-      </c>
-      <c r="Z74" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA74" s="3">
-        <v>30</v>
-      </c>
-      <c r="AB74" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC74" s="3">
-        <v>30</v>
-      </c>
-      <c r="AD74" s="3">
-        <v>30</v>
-      </c>
-      <c r="AE74" s="3">
-        <v>30</v>
-      </c>
-      <c r="AF74" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG74" s="3">
-        <v>30</v>
-      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="3">
-        <f>C73*$B$5</f>
-        <v>242.69090909090883</v>
-      </c>
-      <c r="D75" s="3">
-        <f t="shared" ref="D75:AG75" si="26">D73*$B$5</f>
-        <v>240.26399999999967</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="26"/>
-        <v>237.83709090909048</v>
-      </c>
-      <c r="F75" s="3">
-        <f t="shared" si="26"/>
-        <v>235.41018181818131</v>
-      </c>
-      <c r="G75" s="3">
-        <f t="shared" si="26"/>
-        <v>232.98327272727272</v>
-      </c>
-      <c r="H75" s="3">
-        <f t="shared" si="26"/>
-        <v>230.55636363636353</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="26"/>
-        <v>228.12945454545437</v>
-      </c>
-      <c r="J75" s="3">
-        <f t="shared" si="26"/>
-        <v>225.70254545454517</v>
-      </c>
-      <c r="K75" s="3">
-        <f t="shared" si="26"/>
-        <v>223.27563636363601</v>
-      </c>
-      <c r="L75" s="3">
-        <f t="shared" si="26"/>
-        <v>220.84872727272682</v>
-      </c>
-      <c r="M75" s="3">
-        <f t="shared" si="26"/>
-        <v>218.42181818181766</v>
-      </c>
-      <c r="N75" s="3">
-        <f t="shared" si="26"/>
-        <v>212.96127272727435</v>
-      </c>
-      <c r="O75" s="3">
-        <f t="shared" si="26"/>
-        <v>207.50072727272985</v>
-      </c>
-      <c r="P75" s="3">
-        <f t="shared" si="26"/>
-        <v>202.04018181818304</v>
-      </c>
-      <c r="Q75" s="3">
-        <f t="shared" si="26"/>
-        <v>196.57963636363857</v>
-      </c>
-      <c r="R75" s="3">
-        <f t="shared" si="26"/>
-        <v>191.11909090909177</v>
-      </c>
-      <c r="S75" s="3">
-        <f t="shared" si="26"/>
-        <v>185.65854545454727</v>
-      </c>
-      <c r="T75" s="3">
-        <f t="shared" si="26"/>
-        <v>180.19800000000279</v>
-      </c>
-      <c r="U75" s="3">
-        <f t="shared" si="26"/>
-        <v>174.73745454545599</v>
-      </c>
-      <c r="V75" s="3">
-        <f t="shared" si="26"/>
-        <v>169.27690909091152</v>
-      </c>
-      <c r="W75" s="3">
-        <f t="shared" si="26"/>
-        <v>163.81636363636468</v>
-      </c>
-      <c r="X75" s="3">
-        <f t="shared" si="26"/>
-        <v>158.35581818182021</v>
-      </c>
-      <c r="Y75" s="3">
-        <f t="shared" si="26"/>
-        <v>152.89527272727574</v>
-      </c>
-      <c r="Z75" s="3">
-        <f t="shared" si="26"/>
-        <v>147.43472727272894</v>
-      </c>
-      <c r="AA75" s="3">
-        <f t="shared" si="26"/>
-        <v>141.97418181818443</v>
-      </c>
-      <c r="AB75" s="3">
-        <f t="shared" si="26"/>
-        <v>136.51363636363763</v>
-      </c>
-      <c r="AC75" s="3">
-        <f t="shared" si="26"/>
-        <v>131.05309090909316</v>
-      </c>
-      <c r="AD75" s="3">
-        <f t="shared" si="26"/>
-        <v>125.59254545454634</v>
-      </c>
-      <c r="AE75" s="3">
-        <f t="shared" si="26"/>
-        <v>120.13200000000187</v>
-      </c>
-      <c r="AF75" s="3">
-        <f t="shared" si="26"/>
-        <v>114.67145454545738</v>
-      </c>
-      <c r="AG75" s="3">
-        <f t="shared" si="26"/>
-        <v>109.21090909091058</v>
-      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>28</v>
-      </c>
-      <c r="C76">
-        <f>((C73*General!$B$29*(1+General!$B$29)^C74)/((1+General!$B$29)^C74-1)+C75)</f>
-        <v>781.6311731151402</v>
-      </c>
-      <c r="D76">
-        <f>((D73*General!$B$29*(1+General!$B$29)^D74)/((1+General!$B$29)^D74-1)+D75)</f>
-        <v>773.8148613839885</v>
-      </c>
-      <c r="E76">
-        <f>((E73*General!$B$29*(1+General!$B$29)^E74)/((1+General!$B$29)^E74-1)+E75)</f>
-        <v>765.9985496528368</v>
-      </c>
-      <c r="F76">
-        <f>((F73*General!$B$29*(1+General!$B$29)^F74)/((1+General!$B$29)^F74-1)+F75)</f>
-        <v>758.18223792168521</v>
-      </c>
-      <c r="G76">
-        <f>((G73*General!$B$29*(1+General!$B$29)^G74)/((1+General!$B$29)^G74-1)+G75)</f>
-        <v>750.36592619053545</v>
-      </c>
-      <c r="H76">
-        <f>((H73*General!$B$29*(1+General!$B$29)^H74)/((1+General!$B$29)^H74-1)+H75)</f>
-        <v>742.54961445938375</v>
-      </c>
-      <c r="I76">
-        <f>((I73*General!$B$29*(1+General!$B$29)^I74)/((1+General!$B$29)^I74-1)+I75)</f>
-        <v>734.73330272823193</v>
-      </c>
-      <c r="J76">
-        <f>((J73*General!$B$29*(1+General!$B$29)^J74)/((1+General!$B$29)^J74-1)+J75)</f>
-        <v>726.91699099708023</v>
-      </c>
-      <c r="K76">
-        <f>((K73*General!$B$29*(1+General!$B$29)^K74)/((1+General!$B$29)^K74-1)+K75)</f>
-        <v>719.10067926592865</v>
-      </c>
-      <c r="L76">
-        <f>((L73*General!$B$29*(1+General!$B$29)^L74)/((1+General!$B$29)^L74-1)+L75)</f>
-        <v>711.28436753477695</v>
-      </c>
-      <c r="M76">
-        <f>((M73*General!$B$29*(1+General!$B$29)^M74)/((1+General!$B$29)^M74-1)+M75)</f>
-        <v>703.46805580362525</v>
-      </c>
-      <c r="N76">
-        <f>((N73*General!$B$29*(1+General!$B$29)^N74)/((1+General!$B$29)^N74-1)+N75)</f>
-        <v>685.88135440854148</v>
-      </c>
-      <c r="O76">
-        <f>((O73*General!$B$29*(1+General!$B$29)^O74)/((1+General!$B$29)^O74-1)+O75)</f>
-        <v>668.29465301345385</v>
-      </c>
-      <c r="P76">
-        <f>((P73*General!$B$29*(1+General!$B$29)^P74)/((1+General!$B$29)^P74-1)+P75)</f>
-        <v>650.70795161835895</v>
-      </c>
-      <c r="Q76">
-        <f>((Q73*General!$B$29*(1+General!$B$29)^Q74)/((1+General!$B$29)^Q74-1)+Q75)</f>
-        <v>633.12125022327143</v>
-      </c>
-      <c r="R76">
-        <f>((R73*General!$B$29*(1+General!$B$29)^R74)/((1+General!$B$29)^R74-1)+R75)</f>
-        <v>615.53454882817641</v>
-      </c>
-      <c r="S76">
-        <f>((S73*General!$B$29*(1+General!$B$29)^S74)/((1+General!$B$29)^S74-1)+S75)</f>
-        <v>597.94784743308878</v>
-      </c>
-      <c r="T76">
-        <f>((T73*General!$B$29*(1+General!$B$29)^T74)/((1+General!$B$29)^T74-1)+T75)</f>
-        <v>580.36114603800127</v>
-      </c>
-      <c r="U76">
-        <f>((U73*General!$B$29*(1+General!$B$29)^U74)/((1+General!$B$29)^U74-1)+U75)</f>
-        <v>562.77444464290625</v>
-      </c>
-      <c r="V76">
-        <f>((V73*General!$B$29*(1+General!$B$29)^V74)/((1+General!$B$29)^V74-1)+V75)</f>
-        <v>545.18774324781873</v>
-      </c>
-      <c r="W76">
-        <f>((W73*General!$B$29*(1+General!$B$29)^W74)/((1+General!$B$29)^W74-1)+W75)</f>
-        <v>527.6010418527236</v>
-      </c>
-      <c r="X76">
-        <f>((X73*General!$B$29*(1+General!$B$29)^X74)/((1+General!$B$29)^X74-1)+X75)</f>
-        <v>510.01434045763608</v>
-      </c>
-      <c r="Y76">
-        <f>((Y73*General!$B$29*(1+General!$B$29)^Y74)/((1+General!$B$29)^Y74-1)+Y75)</f>
-        <v>492.42763906254856</v>
-      </c>
-      <c r="Z76">
-        <f>((Z73*General!$B$29*(1+General!$B$29)^Z74)/((1+General!$B$29)^Z74-1)+Z75)</f>
-        <v>474.84093766745349</v>
-      </c>
-      <c r="AA76">
-        <f>((AA73*General!$B$29*(1+General!$B$29)^AA74)/((1+General!$B$29)^AA74-1)+AA75)</f>
-        <v>457.25423627236597</v>
-      </c>
-      <c r="AB76">
-        <f>((AB73*General!$B$29*(1+General!$B$29)^AB74)/((1+General!$B$29)^AB74-1)+AB75)</f>
-        <v>439.6675348772709</v>
-      </c>
-      <c r="AC76">
-        <f>((AC73*General!$B$29*(1+General!$B$29)^AC74)/((1+General!$B$29)^AC74-1)+AC75)</f>
-        <v>422.08083348218344</v>
-      </c>
-      <c r="AD76">
-        <f>((AD73*General!$B$29*(1+General!$B$29)^AD74)/((1+General!$B$29)^AD74-1)+AD75)</f>
-        <v>404.49413208708836</v>
-      </c>
-      <c r="AE76">
-        <f>((AE73*General!$B$29*(1+General!$B$29)^AE74)/((1+General!$B$29)^AE74-1)+AE75)</f>
-        <v>386.90743069200084</v>
-      </c>
-      <c r="AF76">
-        <f>((AF73*General!$B$29*(1+General!$B$29)^AF74)/((1+General!$B$29)^AF74-1)+AF75)</f>
-        <v>369.32072929691327</v>
-      </c>
-      <c r="AG76">
-        <f>((AG73*General!$B$29*(1+General!$B$29)^AG74)/((1+General!$B$29)^AG74-1)+AG75)</f>
-        <v>351.73402790181819</v>
       </c>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
@@ -6404,126 +6026,126 @@
       </c>
       <c r="C80">
         <f>LOOKUP(C79,72:72,73:73)</f>
-        <v>6067.2727272727207</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <f t="shared" ref="D80:AG80" si="27">LOOKUP(D79,72:72,73:73)</f>
-        <v>5885.2545454545325</v>
+        <f t="shared" ref="D80:AG80" si="24">LOOKUP(D79,72:72,73:73)</f>
+        <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="27"/>
-        <v>5703.2363636363589</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="F80">
-        <f t="shared" si="27"/>
-        <v>5521.2181818181707</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="27"/>
-        <v>5187.5181818182464</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="27"/>
-        <v>4777.9772727272939</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="I80">
-        <f t="shared" si="27"/>
-        <v>4368.4363636363996</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="J80">
-        <f t="shared" si="27"/>
-        <v>3958.8954545455053</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="27"/>
-        <v>3549.3545454546111</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="27"/>
-        <v>3139.8136363636586</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="M80">
-        <f t="shared" si="27"/>
-        <v>2730.2727272727643</v>
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
       <c r="N80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="O80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="P80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="Q80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="R80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="S80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="T80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="U80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="V80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="W80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="X80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="Y80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="Z80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AA80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AB80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AC80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AD80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AE80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AF80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
       <c r="AG80" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6533,126 +6155,126 @@
       </c>
       <c r="C81">
         <f>LOOKUP(C79,72:72,74:74)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81:AG81" si="28">LOOKUP(D79,72:72,74:74)</f>
-        <v>30</v>
+        <f t="shared" ref="D81:AG81" si="25">LOOKUP(D79,72:72,74:74)</f>
+        <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="F81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="G81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="I81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="J81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" si="28"/>
-        <v>30</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="N81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="O81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="P81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="Q81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="R81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="S81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="T81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="U81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="V81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="W81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="X81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="Y81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="Z81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="AA81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="AB81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="AC81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="AD81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="AE81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="AF81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
       <c r="AG81" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6662,126 +6284,126 @@
       </c>
       <c r="C82">
         <f>LOOKUP(C79,72:72,75:75)</f>
-        <v>242.69090909090883</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <f t="shared" ref="D82:AG82" si="29">LOOKUP(D79,72:72,75:75)</f>
-        <v>235.41018181818131</v>
+        <f t="shared" ref="D82:AG82" si="26">LOOKUP(D79,72:72,75:75)</f>
+        <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="29"/>
-        <v>228.12945454545437</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="F82">
-        <f t="shared" si="29"/>
-        <v>220.84872727272682</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="29"/>
-        <v>207.50072727272985</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="H82">
-        <f t="shared" si="29"/>
-        <v>191.11909090909177</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="I82">
-        <f t="shared" si="29"/>
-        <v>174.73745454545599</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="J82">
-        <f t="shared" si="29"/>
-        <v>158.35581818182021</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" si="29"/>
-        <v>141.97418181818443</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" si="29"/>
-        <v>125.59254545454634</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" si="29"/>
-        <v>109.21090909091058</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="N82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="O82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="P82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="Q82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="R82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="S82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="T82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="U82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="V82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="W82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="X82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="Y82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="Z82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AA82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AB82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AC82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AD82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AE82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AF82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
       <c r="AG82" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6791,126 +6413,126 @@
       </c>
       <c r="C83">
         <f>LOOKUP(C79,72:72,76:76)</f>
-        <v>781.6311731151402</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <f t="shared" ref="D83:AG83" si="30">LOOKUP(D79,72:72,76:76)</f>
-        <v>758.18223792168521</v>
+        <f t="shared" ref="D83:AG83" si="27">LOOKUP(D79,72:72,76:76)</f>
+        <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="30"/>
-        <v>734.73330272823193</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="F83">
-        <f t="shared" si="30"/>
-        <v>711.28436753477695</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="G83">
-        <f t="shared" si="30"/>
-        <v>668.29465301345385</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="H83">
-        <f t="shared" si="30"/>
-        <v>615.53454882817641</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="I83">
-        <f t="shared" si="30"/>
-        <v>562.77444464290625</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="J83">
-        <f t="shared" si="30"/>
-        <v>510.01434045763608</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" si="30"/>
-        <v>457.25423627236597</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="L83">
-        <f t="shared" si="30"/>
-        <v>404.49413208708836</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="M83">
-        <f t="shared" si="30"/>
-        <v>351.73402790181819</v>
+        <f t="shared" si="27"/>
+        <v>0</v>
       </c>
       <c r="N83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="O83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="P83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="Q83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="R83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="S83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="T83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="U83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="V83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="W83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="X83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="Y83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="Z83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AA83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AB83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AC83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AD83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AE83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AF83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
       <c r="AG83" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -6924,8 +6546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC3E46-120F-45FB-B8A9-A6402E8BA3D8}">
   <dimension ref="A8:AG77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11453,8 +11075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248BE2C-4A37-440D-BBBC-E1B089756B68}">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16033,7 +15655,7 @@
   <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21490,7 +21112,7 @@
   <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26054,7 +25676,7 @@
   <dimension ref="A1:AG65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30429,7 +30051,7 @@
   <dimension ref="A1:AG172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30437,7 +30059,7 @@
     <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -40104,8 +39726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF286993-A1AD-471A-9E00-B022976E03B8}">
   <dimension ref="A1:AG180"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52072,21 +51694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F55467E21B67B45A103D81F13D91C27" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7ac8f59c42c05cf5cbd548b0362af564">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0764678-775e-4b3a-9581-a9313f21c0ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1db46833b09b12d07fc9b351fd6923d" ns3:_="">
     <xsd:import namespace="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
@@ -52218,31 +51825,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75DC9A7-280D-43AE-914F-3C97FF60230F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E322B84F-BC2B-4CCC-AC01-009FF4B401AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577653DF-BA89-4200-B906-63F73BB80659}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -52258,4 +51856,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75DC9A7-280D-43AE-914F-3C97FF60230F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E322B84F-BC2B-4CCC-AC01-009FF4B401AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Inputdata econ.xlsx
+++ b/Inputdata econ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3395E720-878D-4395-812C-A845A8CB8E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588B606-CFFD-4E0E-B557-D4BADF85E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14955" yWindow="0" windowWidth="13950" windowHeight="15585" tabRatio="659" firstSheet="10" activeTab="10" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="659" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,10 @@
     <sheet name="Desalination" sheetId="6" r:id="rId5"/>
     <sheet name="Ammonia" sheetId="7" r:id="rId6"/>
     <sheet name="Liquid hydrogen" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="16" r:id="rId8"/>
-    <sheet name="Land transport" sheetId="12" r:id="rId9"/>
-    <sheet name="Storage" sheetId="9" r:id="rId10"/>
-    <sheet name="FPSO" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
-    <sheet name="Pipeline NH3" sheetId="14" r:id="rId13"/>
-    <sheet name="Pipeline GH2" sheetId="15" r:id="rId14"/>
+    <sheet name="Land transport" sheetId="12" r:id="rId8"/>
+    <sheet name="Storage" sheetId="9" r:id="rId9"/>
+    <sheet name="FPSO" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="‘Abasān_al_Kabīrah">#REF!</definedName>
@@ -1238,9 +1235,6 @@
     <t>In 2025</t>
   </si>
   <si>
-    <t>Factor 2025 to 2035</t>
-  </si>
-  <si>
     <t>Factor 2035 to 2050</t>
   </si>
   <si>
@@ -1617,6 +1611,9 @@
   </si>
   <si>
     <t>Density gaseous hydrogen</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
   </si>
 </sst>
 </file>
@@ -2466,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF1995-AAE9-47B2-9107-0FDDA5B0CC19}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2559,10 +2556,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D15">
         <v>26.81</v>
@@ -2576,10 +2573,10 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D16">
         <v>35.64</v>
@@ -2590,13 +2587,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17">
         <v>35.64</v>
@@ -2637,7 +2634,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="3">
         <v>1.6</v>
@@ -2653,7 +2650,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="3">
         <v>0.08</v>
@@ -2682,3871 +2679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BF2731-C1BE-4102-92A2-D2E64F19F1BE}">
-  <dimension ref="A1:AG83"/>
-  <sheetViews>
-    <sheetView topLeftCell="I25" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:M54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="3">
-        <f>290000000*0.94</f>
-        <v>272600000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="3">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8">
-        <f>B3/(B6/1000)</f>
-        <v>44929.577464788737</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9">
-        <f>B4/B8</f>
-        <v>6067.272727272727</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B10">
-        <f>B9*0.9</f>
-        <v>5460.545454545454</v>
-      </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11">
-        <f>B10*0.5</f>
-        <v>2730.272727272727</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>2020</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
-      <c r="E14">
-        <v>2022</v>
-      </c>
-      <c r="F14">
-        <v>2023</v>
-      </c>
-      <c r="G14">
-        <v>2024</v>
-      </c>
-      <c r="H14">
-        <v>2025</v>
-      </c>
-      <c r="I14">
-        <v>2026</v>
-      </c>
-      <c r="J14">
-        <v>2027</v>
-      </c>
-      <c r="K14">
-        <v>2028</v>
-      </c>
-      <c r="L14">
-        <v>2029</v>
-      </c>
-      <c r="M14">
-        <v>2030</v>
-      </c>
-      <c r="N14">
-        <v>2031</v>
-      </c>
-      <c r="O14">
-        <v>2032</v>
-      </c>
-      <c r="P14">
-        <v>2033</v>
-      </c>
-      <c r="Q14">
-        <v>2034</v>
-      </c>
-      <c r="R14">
-        <v>2035</v>
-      </c>
-      <c r="S14">
-        <v>2036</v>
-      </c>
-      <c r="T14">
-        <v>2037</v>
-      </c>
-      <c r="U14">
-        <v>2038</v>
-      </c>
-      <c r="V14">
-        <v>2039</v>
-      </c>
-      <c r="W14">
-        <v>2040</v>
-      </c>
-      <c r="X14">
-        <v>2041</v>
-      </c>
-      <c r="Y14">
-        <v>2042</v>
-      </c>
-      <c r="Z14">
-        <v>2043</v>
-      </c>
-      <c r="AA14">
-        <v>2044</v>
-      </c>
-      <c r="AB14">
-        <v>2045</v>
-      </c>
-      <c r="AC14">
-        <v>2046</v>
-      </c>
-      <c r="AD14">
-        <v>2047</v>
-      </c>
-      <c r="AE14">
-        <v>2048</v>
-      </c>
-      <c r="AF14">
-        <v>2049</v>
-      </c>
-      <c r="AG14">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3">
-        <f>_xlfn.FORECAST.LINEAR(C14,$B$9:$B$10,$E$9:$E$10)</f>
-        <v>6067.2727272727207</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" ref="D15:M15" si="0">_xlfn.FORECAST.LINEAR(D14,$B$9:$B$10,$E$9:$E$10)</f>
-        <v>6006.5999999999913</v>
-      </c>
-      <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>5945.9272727272619</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>5885.2545454545325</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="0"/>
-        <v>5824.5818181818177</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>5763.9090909090883</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>5703.2363636363589</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="0"/>
-        <v>5642.5636363636295</v>
-      </c>
-      <c r="K15" s="3">
-        <f t="shared" si="0"/>
-        <v>5581.8909090909001</v>
-      </c>
-      <c r="L15" s="3">
-        <f t="shared" si="0"/>
-        <v>5521.2181818181707</v>
-      </c>
-      <c r="M15" s="3">
-        <f t="shared" si="0"/>
-        <v>5460.5454545454413</v>
-      </c>
-      <c r="N15" s="3">
-        <f>_xlfn.FORECAST.LINEAR(N14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>5324.0318181818584</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" ref="O15:V15" si="1">_xlfn.FORECAST.LINEAR(O14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>5187.5181818182464</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="1"/>
-        <v>5051.0045454545761</v>
-      </c>
-      <c r="Q15" s="3">
-        <f t="shared" si="1"/>
-        <v>4914.4909090909641</v>
-      </c>
-      <c r="R15" s="3">
-        <f t="shared" si="1"/>
-        <v>4777.9772727272939</v>
-      </c>
-      <c r="S15" s="3">
-        <f t="shared" si="1"/>
-        <v>4641.4636363636819</v>
-      </c>
-      <c r="T15" s="3">
-        <f t="shared" si="1"/>
-        <v>4504.9500000000698</v>
-      </c>
-      <c r="U15" s="3">
-        <f t="shared" si="1"/>
-        <v>4368.4363636363996</v>
-      </c>
-      <c r="V15" s="3">
-        <f t="shared" si="1"/>
-        <v>4231.9227272727876</v>
-      </c>
-      <c r="W15" s="3">
-        <f t="shared" ref="W15" si="2">_xlfn.FORECAST.LINEAR(W14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>4095.4090909091174</v>
-      </c>
-      <c r="X15" s="3">
-        <f t="shared" ref="X15" si="3">_xlfn.FORECAST.LINEAR(X14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>3958.8954545455053</v>
-      </c>
-      <c r="Y15" s="3">
-        <f t="shared" ref="Y15" si="4">_xlfn.FORECAST.LINEAR(Y14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>3822.3818181818933</v>
-      </c>
-      <c r="Z15" s="3">
-        <f t="shared" ref="Z15" si="5">_xlfn.FORECAST.LINEAR(Z14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>3685.8681818182231</v>
-      </c>
-      <c r="AA15" s="3">
-        <f t="shared" ref="AA15" si="6">_xlfn.FORECAST.LINEAR(AA14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>3549.3545454546111</v>
-      </c>
-      <c r="AB15" s="3">
-        <f t="shared" ref="AB15" si="7">_xlfn.FORECAST.LINEAR(AB14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>3412.8409090909408</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" ref="AC15:AD15" si="8">_xlfn.FORECAST.LINEAR(AC14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>3276.3272727273288</v>
-      </c>
-      <c r="AD15" s="3">
-        <f t="shared" si="8"/>
-        <v>3139.8136363636586</v>
-      </c>
-      <c r="AE15" s="3">
-        <f t="shared" ref="AE15" si="9">_xlfn.FORECAST.LINEAR(AE14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>3003.3000000000466</v>
-      </c>
-      <c r="AF15" s="3">
-        <f t="shared" ref="AF15" si="10">_xlfn.FORECAST.LINEAR(AF14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>2866.7863636364345</v>
-      </c>
-      <c r="AG15" s="3">
-        <f t="shared" ref="AG15" si="11">_xlfn.FORECAST.LINEAR(AG14,$B$10:$B$11,$E$10:$E$11)</f>
-        <v>2730.2727272727643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="3">
-        <v>30</v>
-      </c>
-      <c r="D16" s="3">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3">
-        <v>30</v>
-      </c>
-      <c r="F16" s="3">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3">
-        <v>30</v>
-      </c>
-      <c r="H16" s="3">
-        <v>30</v>
-      </c>
-      <c r="I16" s="3">
-        <v>30</v>
-      </c>
-      <c r="J16" s="3">
-        <v>30</v>
-      </c>
-      <c r="K16" s="3">
-        <v>30</v>
-      </c>
-      <c r="L16" s="3">
-        <v>30</v>
-      </c>
-      <c r="M16" s="3">
-        <v>30</v>
-      </c>
-      <c r="N16" s="3">
-        <v>30</v>
-      </c>
-      <c r="O16" s="3">
-        <v>30</v>
-      </c>
-      <c r="P16" s="3">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>30</v>
-      </c>
-      <c r="R16" s="3">
-        <v>30</v>
-      </c>
-      <c r="S16" s="3">
-        <v>30</v>
-      </c>
-      <c r="T16" s="3">
-        <v>30</v>
-      </c>
-      <c r="U16" s="3">
-        <v>30</v>
-      </c>
-      <c r="V16" s="3">
-        <v>30</v>
-      </c>
-      <c r="W16" s="3">
-        <v>30</v>
-      </c>
-      <c r="X16" s="3">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>30</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>30</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>30</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>30</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>30</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>30</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>30</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3">
-        <f>C15*$B$5</f>
-        <v>242.69090909090883</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" ref="D17:AG17" si="12">D15*$B$5</f>
-        <v>240.26399999999967</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" si="12"/>
-        <v>237.83709090909048</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="12"/>
-        <v>235.41018181818131</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="12"/>
-        <v>232.98327272727272</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="12"/>
-        <v>230.55636363636353</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="12"/>
-        <v>228.12945454545437</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="12"/>
-        <v>225.70254545454517</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" si="12"/>
-        <v>223.27563636363601</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" si="12"/>
-        <v>220.84872727272682</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" si="12"/>
-        <v>218.42181818181766</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="12"/>
-        <v>212.96127272727435</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" si="12"/>
-        <v>207.50072727272985</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="12"/>
-        <v>202.04018181818304</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" si="12"/>
-        <v>196.57963636363857</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" si="12"/>
-        <v>191.11909090909177</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" si="12"/>
-        <v>185.65854545454727</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" si="12"/>
-        <v>180.19800000000279</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" si="12"/>
-        <v>174.73745454545599</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="12"/>
-        <v>169.27690909091152</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" si="12"/>
-        <v>163.81636363636468</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" si="12"/>
-        <v>158.35581818182021</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" si="12"/>
-        <v>152.89527272727574</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" si="12"/>
-        <v>147.43472727272894</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" si="12"/>
-        <v>141.97418181818443</v>
-      </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="12"/>
-        <v>136.51363636363763</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="12"/>
-        <v>131.05309090909316</v>
-      </c>
-      <c r="AD17" s="3">
-        <f t="shared" si="12"/>
-        <v>125.59254545454634</v>
-      </c>
-      <c r="AE17" s="3">
-        <f t="shared" si="12"/>
-        <v>120.13200000000187</v>
-      </c>
-      <c r="AF17" s="3">
-        <f t="shared" si="12"/>
-        <v>114.67145454545738</v>
-      </c>
-      <c r="AG17" s="3">
-        <f t="shared" si="12"/>
-        <v>109.21090909091058</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18">
-        <f>((C15*General!$B$29*(1+General!$B$29)^C16)/((1+General!$B$29)^C16-1)+C17)</f>
-        <v>781.6311731151402</v>
-      </c>
-      <c r="D18">
-        <f>((D15*General!$B$29*(1+General!$B$29)^D16)/((1+General!$B$29)^D16-1)+D17)</f>
-        <v>773.8148613839885</v>
-      </c>
-      <c r="E18">
-        <f>((E15*General!$B$29*(1+General!$B$29)^E16)/((1+General!$B$29)^E16-1)+E17)</f>
-        <v>765.9985496528368</v>
-      </c>
-      <c r="F18">
-        <f>((F15*General!$B$29*(1+General!$B$29)^F16)/((1+General!$B$29)^F16-1)+F17)</f>
-        <v>758.18223792168521</v>
-      </c>
-      <c r="G18">
-        <f>((G15*General!$B$29*(1+General!$B$29)^G16)/((1+General!$B$29)^G16-1)+G17)</f>
-        <v>750.36592619053545</v>
-      </c>
-      <c r="H18">
-        <f>((H15*General!$B$29*(1+General!$B$29)^H16)/((1+General!$B$29)^H16-1)+H17)</f>
-        <v>742.54961445938375</v>
-      </c>
-      <c r="I18">
-        <f>((I15*General!$B$29*(1+General!$B$29)^I16)/((1+General!$B$29)^I16-1)+I17)</f>
-        <v>734.73330272823193</v>
-      </c>
-      <c r="J18">
-        <f>((J15*General!$B$29*(1+General!$B$29)^J16)/((1+General!$B$29)^J16-1)+J17)</f>
-        <v>726.91699099708023</v>
-      </c>
-      <c r="K18">
-        <f>((K15*General!$B$29*(1+General!$B$29)^K16)/((1+General!$B$29)^K16-1)+K17)</f>
-        <v>719.10067926592865</v>
-      </c>
-      <c r="L18">
-        <f>((L15*General!$B$29*(1+General!$B$29)^L16)/((1+General!$B$29)^L16-1)+L17)</f>
-        <v>711.28436753477695</v>
-      </c>
-      <c r="M18">
-        <f>((M15*General!$B$29*(1+General!$B$29)^M16)/((1+General!$B$29)^M16-1)+M17)</f>
-        <v>703.46805580362525</v>
-      </c>
-      <c r="N18">
-        <f>((N15*General!$B$29*(1+General!$B$29)^N16)/((1+General!$B$29)^N16-1)+N17)</f>
-        <v>685.88135440854148</v>
-      </c>
-      <c r="O18">
-        <f>((O15*General!$B$29*(1+General!$B$29)^O16)/((1+General!$B$29)^O16-1)+O17)</f>
-        <v>668.29465301345385</v>
-      </c>
-      <c r="P18">
-        <f>((P15*General!$B$29*(1+General!$B$29)^P16)/((1+General!$B$29)^P16-1)+P17)</f>
-        <v>650.70795161835895</v>
-      </c>
-      <c r="Q18">
-        <f>((Q15*General!$B$29*(1+General!$B$29)^Q16)/((1+General!$B$29)^Q16-1)+Q17)</f>
-        <v>633.12125022327143</v>
-      </c>
-      <c r="R18">
-        <f>((R15*General!$B$29*(1+General!$B$29)^R16)/((1+General!$B$29)^R16-1)+R17)</f>
-        <v>615.53454882817641</v>
-      </c>
-      <c r="S18">
-        <f>((S15*General!$B$29*(1+General!$B$29)^S16)/((1+General!$B$29)^S16-1)+S17)</f>
-        <v>597.94784743308878</v>
-      </c>
-      <c r="T18">
-        <f>((T15*General!$B$29*(1+General!$B$29)^T16)/((1+General!$B$29)^T16-1)+T17)</f>
-        <v>580.36114603800127</v>
-      </c>
-      <c r="U18">
-        <f>((U15*General!$B$29*(1+General!$B$29)^U16)/((1+General!$B$29)^U16-1)+U17)</f>
-        <v>562.77444464290625</v>
-      </c>
-      <c r="V18">
-        <f>((V15*General!$B$29*(1+General!$B$29)^V16)/((1+General!$B$29)^V16-1)+V17)</f>
-        <v>545.18774324781873</v>
-      </c>
-      <c r="W18">
-        <f>((W15*General!$B$29*(1+General!$B$29)^W16)/((1+General!$B$29)^W16-1)+W17)</f>
-        <v>527.6010418527236</v>
-      </c>
-      <c r="X18">
-        <f>((X15*General!$B$29*(1+General!$B$29)^X16)/((1+General!$B$29)^X16-1)+X17)</f>
-        <v>510.01434045763608</v>
-      </c>
-      <c r="Y18">
-        <f>((Y15*General!$B$29*(1+General!$B$29)^Y16)/((1+General!$B$29)^Y16-1)+Y17)</f>
-        <v>492.42763906254856</v>
-      </c>
-      <c r="Z18">
-        <f>((Z15*General!$B$29*(1+General!$B$29)^Z16)/((1+General!$B$29)^Z16-1)+Z17)</f>
-        <v>474.84093766745349</v>
-      </c>
-      <c r="AA18">
-        <f>((AA15*General!$B$29*(1+General!$B$29)^AA16)/((1+General!$B$29)^AA16-1)+AA17)</f>
-        <v>457.25423627236597</v>
-      </c>
-      <c r="AB18">
-        <f>((AB15*General!$B$29*(1+General!$B$29)^AB16)/((1+General!$B$29)^AB16-1)+AB17)</f>
-        <v>439.6675348772709</v>
-      </c>
-      <c r="AC18">
-        <f>((AC15*General!$B$29*(1+General!$B$29)^AC16)/((1+General!$B$29)^AC16-1)+AC17)</f>
-        <v>422.08083348218344</v>
-      </c>
-      <c r="AD18">
-        <f>((AD15*General!$B$29*(1+General!$B$29)^AD16)/((1+General!$B$29)^AD16-1)+AD17)</f>
-        <v>404.49413208708836</v>
-      </c>
-      <c r="AE18">
-        <f>((AE15*General!$B$29*(1+General!$B$29)^AE16)/((1+General!$B$29)^AE16-1)+AE17)</f>
-        <v>386.90743069200084</v>
-      </c>
-      <c r="AF18">
-        <f>((AF15*General!$B$29*(1+General!$B$29)^AF16)/((1+General!$B$29)^AF16-1)+AF17)</f>
-        <v>369.32072929691327</v>
-      </c>
-      <c r="AG18">
-        <f>((AG15*General!$B$29*(1+General!$B$29)^AG16)/((1+General!$B$29)^AG16-1)+AG17)</f>
-        <v>351.73402790181819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <f>General!$B$9</f>
-        <v>2020</v>
-      </c>
-      <c r="D21">
-        <f>IF(C21=0,0,IF(General!$B$10 &gt; (C21-General!$B$9), C21+General!$B$11,0))</f>
-        <v>2023</v>
-      </c>
-      <c r="E21">
-        <f>IF(D21=0,0,IF(General!$B$10 &gt; (D21-General!$B$9), D21+General!$B$11,0))</f>
-        <v>2026</v>
-      </c>
-      <c r="F21">
-        <f>IF(E21=0,0,IF(General!$B$10 &gt; (E21-General!$B$9), E21+General!$B$11,0))</f>
-        <v>2029</v>
-      </c>
-      <c r="G21">
-        <f>IF(F21=0,0,IF(General!$B$10 &gt; (F21-General!$B$9), F21+General!$B$11,0))</f>
-        <v>2032</v>
-      </c>
-      <c r="H21">
-        <f>IF(G21=0,0,IF(General!$B$10 &gt; (G21-General!$B$9), G21+General!$B$11,0))</f>
-        <v>2035</v>
-      </c>
-      <c r="I21">
-        <f>IF(H21=0,0,IF(General!$B$10 &gt; (H21-General!$B$9), H21+General!$B$11,0))</f>
-        <v>2038</v>
-      </c>
-      <c r="J21">
-        <f>IF(I21=0,0,IF(General!$B$10 &gt; (I21-General!$B$9), I21+General!$B$11,0))</f>
-        <v>2041</v>
-      </c>
-      <c r="K21">
-        <f>IF(J21=0,0,IF(General!$B$10 &gt; (J21-General!$B$9), J21+General!$B$11,0))</f>
-        <v>2044</v>
-      </c>
-      <c r="L21">
-        <f>IF(K21=0,0,IF(General!$B$10 &gt; (K21-General!$B$9), K21+General!$B$11,0))</f>
-        <v>2047</v>
-      </c>
-      <c r="M21">
-        <f>IF(L21=0,0,IF(General!$B$10 &gt; (L21-General!$B$9), L21+General!$B$11,0))</f>
-        <v>2050</v>
-      </c>
-      <c r="N21">
-        <f>IF(M21=0,0,IF(General!$B$10 &gt; (M21-General!$B$9), M21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f>IF(N21=0,0,IF(General!$B$10 &gt; (N21-General!$B$9), N21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f>IF(O21=0,0,IF(General!$B$10 &gt; (O21-General!$B$9), O21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f>IF(P21=0,0,IF(General!$B$10 &gt; (P21-General!$B$9), P21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f>IF(Q21=0,0,IF(General!$B$10 &gt; (Q21-General!$B$9), Q21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f>IF(R21=0,0,IF(General!$B$10 &gt; (R21-General!$B$9), R21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f>IF(S21=0,0,IF(General!$B$10 &gt; (S21-General!$B$9), S21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f>IF(T21=0,0,IF(General!$B$10 &gt; (T21-General!$B$9), T21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f>IF(U21=0,0,IF(General!$B$10 &gt; (U21-General!$B$9), U21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f>IF(V21=0,0,IF(General!$B$10 &gt; (V21-General!$B$9), V21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <f>IF(W21=0,0,IF(General!$B$10 &gt; (W21-General!$B$9), W21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <f>IF(X21=0,0,IF(General!$B$10 &gt; (X21-General!$B$9), X21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <f>IF(Y21=0,0,IF(General!$B$10 &gt; (Y21-General!$B$9), Y21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f>IF(Z21=0,0,IF(General!$B$10 &gt; (Z21-General!$B$9), Z21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <f>IF(AA21=0,0,IF(General!$B$10 &gt; (AA21-General!$B$9), AA21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f>IF(AB21=0,0,IF(General!$B$10 &gt; (AB21-General!$B$9), AB21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <f>IF(AC21=0,0,IF(General!$B$10 &gt; (AC21-General!$B$9), AC21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f>IF(AD21=0,0,IF(General!$B$10 &gt; (AD21-General!$B$9), AD21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <f>IF(AE21=0,0,IF(General!$B$10 &gt; (AE21-General!$B$9), AE21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <f>IF(AF21=0,0,IF(General!$B$10 &gt; (AF21-General!$B$9), AF21+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <f>LOOKUP(C21,14:14,15:15)</f>
-        <v>6067.2727272727207</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22:AG22" si="13">LOOKUP(D21,14:14,15:15)</f>
-        <v>5885.2545454545325</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="13"/>
-        <v>5703.2363636363589</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="13"/>
-        <v>5521.2181818181707</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="13"/>
-        <v>5187.5181818182464</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="13"/>
-        <v>4777.9772727272939</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="13"/>
-        <v>4368.4363636363996</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="13"/>
-        <v>3958.8954545455053</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="13"/>
-        <v>3549.3545454546111</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="13"/>
-        <v>3139.8136363636586</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="13"/>
-        <v>2730.2727272727643</v>
-      </c>
-      <c r="N22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG22" t="e">
-        <f t="shared" si="13"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <f>LOOKUP(C21,14:14,16:16)</f>
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <f t="shared" ref="D23:AG23" si="14">LOOKUP(D21,14:14,16:16)</f>
-        <v>30</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="14"/>
-        <v>30</v>
-      </c>
-      <c r="N23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG23" t="e">
-        <f t="shared" si="14"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <f>LOOKUP(C21,14:14,17:17)</f>
-        <v>242.69090909090883</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24:AG24" si="15">LOOKUP(D21,14:14,17:17)</f>
-        <v>235.41018181818131</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="15"/>
-        <v>228.12945454545437</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="15"/>
-        <v>220.84872727272682</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="15"/>
-        <v>207.50072727272985</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="15"/>
-        <v>191.11909090909177</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="15"/>
-        <v>174.73745454545599</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="15"/>
-        <v>158.35581818182021</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="15"/>
-        <v>141.97418181818443</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="15"/>
-        <v>125.59254545454634</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="15"/>
-        <v>109.21090909091058</v>
-      </c>
-      <c r="N24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG24" t="e">
-        <f t="shared" si="15"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25">
-        <f>LOOKUP(C21,14:14,18:18)</f>
-        <v>781.6311731151402</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:AG25" si="16">LOOKUP(D21,14:14,18:18)</f>
-        <v>758.18223792168521</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="16"/>
-        <v>734.73330272823193</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="16"/>
-        <v>711.28436753477695</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="16"/>
-        <v>668.29465301345385</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="16"/>
-        <v>615.53454882817641</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="16"/>
-        <v>562.77444464290625</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="16"/>
-        <v>510.01434045763608</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="16"/>
-        <v>457.25423627236597</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="16"/>
-        <v>404.49413208708836</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="16"/>
-        <v>351.73402790181819</v>
-      </c>
-      <c r="N25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG25" t="e">
-        <f t="shared" si="16"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="3">
-        <v>25000</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="3">
-        <f>26100000*0.94</f>
-        <v>24534000</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="3">
-        <v>681.97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37">
-        <f>B32/(B35/1000)</f>
-        <v>36658.50403976714</v>
-      </c>
-      <c r="C37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38">
-        <f>B33/B37</f>
-        <v>669.25807920000011</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39">
-        <f>B38*0.9</f>
-        <v>602.3322712800001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40">
-        <f>0.5*B39</f>
-        <v>301.16613564000005</v>
-      </c>
-      <c r="C40" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>2020</v>
-      </c>
-      <c r="D43">
-        <v>2021</v>
-      </c>
-      <c r="E43">
-        <v>2022</v>
-      </c>
-      <c r="F43">
-        <v>2023</v>
-      </c>
-      <c r="G43">
-        <v>2024</v>
-      </c>
-      <c r="H43">
-        <v>2025</v>
-      </c>
-      <c r="I43">
-        <v>2026</v>
-      </c>
-      <c r="J43">
-        <v>2027</v>
-      </c>
-      <c r="K43">
-        <v>2028</v>
-      </c>
-      <c r="L43">
-        <v>2029</v>
-      </c>
-      <c r="M43">
-        <v>2030</v>
-      </c>
-      <c r="N43">
-        <v>2031</v>
-      </c>
-      <c r="O43">
-        <v>2032</v>
-      </c>
-      <c r="P43">
-        <v>2033</v>
-      </c>
-      <c r="Q43">
-        <v>2034</v>
-      </c>
-      <c r="R43">
-        <v>2035</v>
-      </c>
-      <c r="S43">
-        <v>2036</v>
-      </c>
-      <c r="T43">
-        <v>2037</v>
-      </c>
-      <c r="U43">
-        <v>2038</v>
-      </c>
-      <c r="V43">
-        <v>2039</v>
-      </c>
-      <c r="W43">
-        <v>2040</v>
-      </c>
-      <c r="X43">
-        <v>2041</v>
-      </c>
-      <c r="Y43">
-        <v>2042</v>
-      </c>
-      <c r="Z43">
-        <v>2043</v>
-      </c>
-      <c r="AA43">
-        <v>2044</v>
-      </c>
-      <c r="AB43">
-        <v>2045</v>
-      </c>
-      <c r="AC43">
-        <v>2046</v>
-      </c>
-      <c r="AD43">
-        <v>2047</v>
-      </c>
-      <c r="AE43">
-        <v>2048</v>
-      </c>
-      <c r="AF43">
-        <v>2049</v>
-      </c>
-      <c r="AG43">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="3">
-        <f>_xlfn.FORECAST.LINEAR(C43,$B$38:$B$39,$E$38:$E$39)</f>
-        <v>669.25807919999897</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" ref="D44:M44" si="17">_xlfn.FORECAST.LINEAR(D43,$B$38:$B$39,$E$38:$E$39)</f>
-        <v>662.56549840799926</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="17"/>
-        <v>655.87291761599954</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="17"/>
-        <v>649.18033682399982</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="17"/>
-        <v>642.48775603200011</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="17"/>
-        <v>635.79517524000039</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="17"/>
-        <v>629.10259444799885</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="17"/>
-        <v>622.41001365599914</v>
-      </c>
-      <c r="K44" s="3">
-        <f t="shared" si="17"/>
-        <v>615.71743286399942</v>
-      </c>
-      <c r="L44" s="3">
-        <f t="shared" si="17"/>
-        <v>609.0248520719997</v>
-      </c>
-      <c r="M44" s="3">
-        <f t="shared" si="17"/>
-        <v>602.33227127999999</v>
-      </c>
-      <c r="N44" s="3">
-        <f>_xlfn.FORECAST.LINEAR(N43,$B$39:$B$40,$E$39:$E$40)</f>
-        <v>587.2739644980029</v>
-      </c>
-      <c r="O44" s="3">
-        <f t="shared" ref="O44:AG44" si="18">_xlfn.FORECAST.LINEAR(O43,$B$39:$B$40,$E$39:$E$40)</f>
-        <v>572.21565771600217</v>
-      </c>
-      <c r="P44" s="3">
-        <f t="shared" si="18"/>
-        <v>557.15735093400144</v>
-      </c>
-      <c r="Q44" s="3">
-        <f t="shared" si="18"/>
-        <v>542.09904415200072</v>
-      </c>
-      <c r="R44" s="3">
-        <f t="shared" si="18"/>
-        <v>527.04073736999999</v>
-      </c>
-      <c r="S44" s="3">
-        <f t="shared" si="18"/>
-        <v>511.9824305880029</v>
-      </c>
-      <c r="T44" s="3">
-        <f t="shared" si="18"/>
-        <v>496.92412380600217</v>
-      </c>
-      <c r="U44" s="3">
-        <f t="shared" si="18"/>
-        <v>481.86581702400144</v>
-      </c>
-      <c r="V44" s="3">
-        <f t="shared" si="18"/>
-        <v>466.80751024200072</v>
-      </c>
-      <c r="W44" s="3">
-        <f t="shared" si="18"/>
-        <v>451.74920345999999</v>
-      </c>
-      <c r="X44" s="3">
-        <f t="shared" si="18"/>
-        <v>436.6908966780029</v>
-      </c>
-      <c r="Y44" s="3">
-        <f t="shared" si="18"/>
-        <v>421.63258989600217</v>
-      </c>
-      <c r="Z44" s="3">
-        <f t="shared" si="18"/>
-        <v>406.57428311400145</v>
-      </c>
-      <c r="AA44" s="3">
-        <f t="shared" si="18"/>
-        <v>391.51597633200072</v>
-      </c>
-      <c r="AB44" s="3">
-        <f t="shared" si="18"/>
-        <v>376.45766954999999</v>
-      </c>
-      <c r="AC44" s="3">
-        <f t="shared" si="18"/>
-        <v>361.3993627680029</v>
-      </c>
-      <c r="AD44" s="3">
-        <f t="shared" si="18"/>
-        <v>346.34105598600217</v>
-      </c>
-      <c r="AE44" s="3">
-        <f t="shared" si="18"/>
-        <v>331.28274920400145</v>
-      </c>
-      <c r="AF44" s="3">
-        <f t="shared" si="18"/>
-        <v>316.22444242200072</v>
-      </c>
-      <c r="AG44" s="3">
-        <f t="shared" si="18"/>
-        <v>301.16613563999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="3">
-        <v>25</v>
-      </c>
-      <c r="D45" s="3">
-        <v>25</v>
-      </c>
-      <c r="E45" s="3">
-        <v>25</v>
-      </c>
-      <c r="F45" s="3">
-        <v>25</v>
-      </c>
-      <c r="G45" s="3">
-        <v>25</v>
-      </c>
-      <c r="H45" s="3">
-        <v>25</v>
-      </c>
-      <c r="I45" s="3">
-        <v>25</v>
-      </c>
-      <c r="J45" s="3">
-        <v>25</v>
-      </c>
-      <c r="K45" s="3">
-        <v>25</v>
-      </c>
-      <c r="L45" s="3">
-        <v>25</v>
-      </c>
-      <c r="M45" s="3">
-        <v>25</v>
-      </c>
-      <c r="N45" s="3">
-        <v>25</v>
-      </c>
-      <c r="O45" s="3">
-        <v>25</v>
-      </c>
-      <c r="P45" s="3">
-        <v>25</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>25</v>
-      </c>
-      <c r="R45" s="3">
-        <v>25</v>
-      </c>
-      <c r="S45" s="3">
-        <v>25</v>
-      </c>
-      <c r="T45" s="3">
-        <v>25</v>
-      </c>
-      <c r="U45" s="3">
-        <v>25</v>
-      </c>
-      <c r="V45" s="3">
-        <v>25</v>
-      </c>
-      <c r="W45" s="3">
-        <v>25</v>
-      </c>
-      <c r="X45" s="3">
-        <v>25</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>25</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>25</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>25</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>25</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>25</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>25</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>25</v>
-      </c>
-      <c r="AF45" s="3">
-        <v>25</v>
-      </c>
-      <c r="AG45" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="3">
-        <f>C44*$B$34</f>
-        <v>20.077742375999968</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" ref="D46:AG46" si="19">D44*$B$34</f>
-        <v>19.876964952239977</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="19"/>
-        <v>19.676187528479986</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="19"/>
-        <v>19.475410104719995</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="19"/>
-        <v>19.274632680960003</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="19"/>
-        <v>19.073855257200012</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="19"/>
-        <v>18.873077833439964</v>
-      </c>
-      <c r="J46" s="3">
-        <f t="shared" si="19"/>
-        <v>18.672300409679973</v>
-      </c>
-      <c r="K46" s="3">
-        <f t="shared" si="19"/>
-        <v>18.471522985919982</v>
-      </c>
-      <c r="L46" s="3">
-        <f t="shared" si="19"/>
-        <v>18.270745562159991</v>
-      </c>
-      <c r="M46" s="3">
-        <f t="shared" si="19"/>
-        <v>18.0699681384</v>
-      </c>
-      <c r="N46" s="3">
-        <f t="shared" si="19"/>
-        <v>17.618218934940085</v>
-      </c>
-      <c r="O46" s="3">
-        <f t="shared" si="19"/>
-        <v>17.166469731480063</v>
-      </c>
-      <c r="P46" s="3">
-        <f t="shared" si="19"/>
-        <v>16.714720528020042</v>
-      </c>
-      <c r="Q46" s="3">
-        <f t="shared" si="19"/>
-        <v>16.26297132456002</v>
-      </c>
-      <c r="R46" s="3">
-        <f t="shared" si="19"/>
-        <v>15.811222121099998</v>
-      </c>
-      <c r="S46" s="3">
-        <f t="shared" si="19"/>
-        <v>15.359472917640087</v>
-      </c>
-      <c r="T46" s="3">
-        <f t="shared" si="19"/>
-        <v>14.907723714180065</v>
-      </c>
-      <c r="U46" s="3">
-        <f t="shared" si="19"/>
-        <v>14.455974510720043</v>
-      </c>
-      <c r="V46" s="3">
-        <f t="shared" si="19"/>
-        <v>14.004225307260022</v>
-      </c>
-      <c r="W46" s="3">
-        <f t="shared" si="19"/>
-        <v>13.552476103799998</v>
-      </c>
-      <c r="X46" s="3">
-        <f t="shared" si="19"/>
-        <v>13.100726900340087</v>
-      </c>
-      <c r="Y46" s="3">
-        <f t="shared" si="19"/>
-        <v>12.648977696880065</v>
-      </c>
-      <c r="Z46" s="3">
-        <f t="shared" si="19"/>
-        <v>12.197228493420043</v>
-      </c>
-      <c r="AA46" s="3">
-        <f t="shared" si="19"/>
-        <v>11.745479289960022</v>
-      </c>
-      <c r="AB46" s="3">
-        <f t="shared" si="19"/>
-        <v>11.2937300865</v>
-      </c>
-      <c r="AC46" s="3">
-        <f t="shared" si="19"/>
-        <v>10.841980883040087</v>
-      </c>
-      <c r="AD46" s="3">
-        <f t="shared" si="19"/>
-        <v>10.390231679580065</v>
-      </c>
-      <c r="AE46" s="3">
-        <f t="shared" si="19"/>
-        <v>9.9384824761200434</v>
-      </c>
-      <c r="AF46" s="3">
-        <f t="shared" si="19"/>
-        <v>9.4867332726600218</v>
-      </c>
-      <c r="AG46" s="3">
-        <f t="shared" si="19"/>
-        <v>9.0349840692000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47">
-        <f>((C44*General!$B$29*(1+General!$B$29)^C45)/((1+General!$B$29)^C45-1)+C46)</f>
-        <v>82.773022106121246</v>
-      </c>
-      <c r="D47">
-        <f>((D44*General!$B$29*(1+General!$B$29)^D45)/((1+General!$B$29)^D45-1)+D46)</f>
-        <v>81.945291885060072</v>
-      </c>
-      <c r="E47">
-        <f>((E44*General!$B$29*(1+General!$B$29)^E45)/((1+General!$B$29)^E45-1)+E46)</f>
-        <v>81.117561663998899</v>
-      </c>
-      <c r="F47">
-        <f>((F44*General!$B$29*(1+General!$B$29)^F45)/((1+General!$B$29)^F45-1)+F46)</f>
-        <v>80.289831442937711</v>
-      </c>
-      <c r="G47">
-        <f>((G44*General!$B$29*(1+General!$B$29)^G45)/((1+General!$B$29)^G45-1)+G46)</f>
-        <v>79.462101221876537</v>
-      </c>
-      <c r="H47">
-        <f>((H44*General!$B$29*(1+General!$B$29)^H45)/((1+General!$B$29)^H45-1)+H46)</f>
-        <v>78.634371000815364</v>
-      </c>
-      <c r="I47">
-        <f>((I44*General!$B$29*(1+General!$B$29)^I45)/((1+General!$B$29)^I45-1)+I46)</f>
-        <v>77.806640779753963</v>
-      </c>
-      <c r="J47">
-        <f>((J44*General!$B$29*(1+General!$B$29)^J45)/((1+General!$B$29)^J45-1)+J46)</f>
-        <v>76.978910558692775</v>
-      </c>
-      <c r="K47">
-        <f>((K44*General!$B$29*(1+General!$B$29)^K45)/((1+General!$B$29)^K45-1)+K46)</f>
-        <v>76.151180337631587</v>
-      </c>
-      <c r="L47">
-        <f>((L44*General!$B$29*(1+General!$B$29)^L45)/((1+General!$B$29)^L45-1)+L46)</f>
-        <v>75.323450116570413</v>
-      </c>
-      <c r="M47">
-        <f>((M44*General!$B$29*(1+General!$B$29)^M45)/((1+General!$B$29)^M45-1)+M46)</f>
-        <v>74.495719895509239</v>
-      </c>
-      <c r="N47">
-        <f>((N44*General!$B$29*(1+General!$B$29)^N45)/((1+General!$B$29)^N45-1)+N46)</f>
-        <v>72.633326898121865</v>
-      </c>
-      <c r="O47">
-        <f>((O44*General!$B$29*(1+General!$B$29)^O45)/((1+General!$B$29)^O45-1)+O46)</f>
-        <v>70.77093390073405</v>
-      </c>
-      <c r="P47">
-        <f>((P44*General!$B$29*(1+General!$B$29)^P45)/((1+General!$B$29)^P45-1)+P46)</f>
-        <v>68.908540903346221</v>
-      </c>
-      <c r="Q47">
-        <f>((Q44*General!$B$29*(1+General!$B$29)^Q45)/((1+General!$B$29)^Q45-1)+Q46)</f>
-        <v>67.046147905958406</v>
-      </c>
-      <c r="R47">
-        <f>((R44*General!$B$29*(1+General!$B$29)^R45)/((1+General!$B$29)^R45-1)+R46)</f>
-        <v>65.183754908570592</v>
-      </c>
-      <c r="S47">
-        <f>((S44*General!$B$29*(1+General!$B$29)^S45)/((1+General!$B$29)^S45-1)+S46)</f>
-        <v>63.321361911183203</v>
-      </c>
-      <c r="T47">
-        <f>((T44*General!$B$29*(1+General!$B$29)^T45)/((1+General!$B$29)^T45-1)+T46)</f>
-        <v>61.458968913795388</v>
-      </c>
-      <c r="U47">
-        <f>((U44*General!$B$29*(1+General!$B$29)^U45)/((1+General!$B$29)^U45-1)+U46)</f>
-        <v>59.596575916407573</v>
-      </c>
-      <c r="V47">
-        <f>((V44*General!$B$29*(1+General!$B$29)^V45)/((1+General!$B$29)^V45-1)+V46)</f>
-        <v>57.734182919019752</v>
-      </c>
-      <c r="W47">
-        <f>((W44*General!$B$29*(1+General!$B$29)^W45)/((1+General!$B$29)^W45-1)+W46)</f>
-        <v>55.87178992163193</v>
-      </c>
-      <c r="X47">
-        <f>((X44*General!$B$29*(1+General!$B$29)^X45)/((1+General!$B$29)^X45-1)+X46)</f>
-        <v>54.009396924244555</v>
-      </c>
-      <c r="Y47">
-        <f>((Y44*General!$B$29*(1+General!$B$29)^Y45)/((1+General!$B$29)^Y45-1)+Y46)</f>
-        <v>52.147003926856733</v>
-      </c>
-      <c r="Z47">
-        <f>((Z44*General!$B$29*(1+General!$B$29)^Z45)/((1+General!$B$29)^Z45-1)+Z46)</f>
-        <v>50.284610929468919</v>
-      </c>
-      <c r="AA47">
-        <f>((AA44*General!$B$29*(1+General!$B$29)^AA45)/((1+General!$B$29)^AA45-1)+AA46)</f>
-        <v>48.422217932081097</v>
-      </c>
-      <c r="AB47">
-        <f>((AB44*General!$B$29*(1+General!$B$29)^AB45)/((1+General!$B$29)^AB45-1)+AB46)</f>
-        <v>46.559824934693275</v>
-      </c>
-      <c r="AC47">
-        <f>((AC44*General!$B$29*(1+General!$B$29)^AC45)/((1+General!$B$29)^AC45-1)+AC46)</f>
-        <v>44.6974319373059</v>
-      </c>
-      <c r="AD47">
-        <f>((AD44*General!$B$29*(1+General!$B$29)^AD45)/((1+General!$B$29)^AD45-1)+AD46)</f>
-        <v>42.835038939918078</v>
-      </c>
-      <c r="AE47">
-        <f>((AE44*General!$B$29*(1+General!$B$29)^AE45)/((1+General!$B$29)^AE45-1)+AE46)</f>
-        <v>40.972645942530264</v>
-      </c>
-      <c r="AF47">
-        <f>((AF44*General!$B$29*(1+General!$B$29)^AF45)/((1+General!$B$29)^AF45-1)+AF46)</f>
-        <v>39.110252945142442</v>
-      </c>
-      <c r="AG47">
-        <f>((AG44*General!$B$29*(1+General!$B$29)^AG45)/((1+General!$B$29)^AG45-1)+AG46)</f>
-        <v>37.24785994775462</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C50">
-        <f>General!$B$9</f>
-        <v>2020</v>
-      </c>
-      <c r="D50">
-        <f>IF(C50=0,0,IF(General!$B$10 &gt; (C50-General!$B$9), C50+General!$B$11,0))</f>
-        <v>2023</v>
-      </c>
-      <c r="E50">
-        <f>IF(D50=0,0,IF(General!$B$10 &gt; (D50-General!$B$9), D50+General!$B$11,0))</f>
-        <v>2026</v>
-      </c>
-      <c r="F50">
-        <f>IF(E50=0,0,IF(General!$B$10 &gt; (E50-General!$B$9), E50+General!$B$11,0))</f>
-        <v>2029</v>
-      </c>
-      <c r="G50">
-        <f>IF(F50=0,0,IF(General!$B$10 &gt; (F50-General!$B$9), F50+General!$B$11,0))</f>
-        <v>2032</v>
-      </c>
-      <c r="H50">
-        <f>IF(G50=0,0,IF(General!$B$10 &gt; (G50-General!$B$9), G50+General!$B$11,0))</f>
-        <v>2035</v>
-      </c>
-      <c r="I50">
-        <f>IF(H50=0,0,IF(General!$B$10 &gt; (H50-General!$B$9), H50+General!$B$11,0))</f>
-        <v>2038</v>
-      </c>
-      <c r="J50">
-        <f>IF(I50=0,0,IF(General!$B$10 &gt; (I50-General!$B$9), I50+General!$B$11,0))</f>
-        <v>2041</v>
-      </c>
-      <c r="K50">
-        <f>IF(J50=0,0,IF(General!$B$10 &gt; (J50-General!$B$9), J50+General!$B$11,0))</f>
-        <v>2044</v>
-      </c>
-      <c r="L50">
-        <f>IF(K50=0,0,IF(General!$B$10 &gt; (K50-General!$B$9), K50+General!$B$11,0))</f>
-        <v>2047</v>
-      </c>
-      <c r="M50">
-        <f>IF(L50=0,0,IF(General!$B$10 &gt; (L50-General!$B$9), L50+General!$B$11,0))</f>
-        <v>2050</v>
-      </c>
-      <c r="N50">
-        <f>IF(M50=0,0,IF(General!$B$10 &gt; (M50-General!$B$9), M50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <f>IF(N50=0,0,IF(General!$B$10 &gt; (N50-General!$B$9), N50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <f>IF(O50=0,0,IF(General!$B$10 &gt; (O50-General!$B$9), O50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <f>IF(P50=0,0,IF(General!$B$10 &gt; (P50-General!$B$9), P50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <f>IF(Q50=0,0,IF(General!$B$10 &gt; (Q50-General!$B$9), Q50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <f>IF(R50=0,0,IF(General!$B$10 &gt; (R50-General!$B$9), R50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f>IF(S50=0,0,IF(General!$B$10 &gt; (S50-General!$B$9), S50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <f>IF(T50=0,0,IF(General!$B$10 &gt; (T50-General!$B$9), T50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <f>IF(U50=0,0,IF(General!$B$10 &gt; (U50-General!$B$9), U50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <f>IF(V50=0,0,IF(General!$B$10 &gt; (V50-General!$B$9), V50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <f>IF(W50=0,0,IF(General!$B$10 &gt; (W50-General!$B$9), W50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <f>IF(X50=0,0,IF(General!$B$10 &gt; (X50-General!$B$9), X50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <f>IF(Y50=0,0,IF(General!$B$10 &gt; (Y50-General!$B$9), Y50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <f>IF(Z50=0,0,IF(General!$B$10 &gt; (Z50-General!$B$9), Z50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <f>IF(AA50=0,0,IF(General!$B$10 &gt; (AA50-General!$B$9), AA50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <f>IF(AB50=0,0,IF(General!$B$10 &gt; (AB50-General!$B$9), AB50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <f>IF(AC50=0,0,IF(General!$B$10 &gt; (AC50-General!$B$9), AC50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <f>IF(AD50=0,0,IF(General!$B$10 &gt; (AD50-General!$B$9), AD50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <f>IF(AE50=0,0,IF(General!$B$10 &gt; (AE50-General!$B$9), AE50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <f>IF(AF50=0,0,IF(General!$B$10 &gt; (AF50-General!$B$9), AF50+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51">
-        <f>LOOKUP(C50,43:43,44:44)</f>
-        <v>669.25807919999897</v>
-      </c>
-      <c r="D51">
-        <f t="shared" ref="D51:AG51" si="20">LOOKUP(D50,43:43,44:44)</f>
-        <v>649.18033682399982</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="20"/>
-        <v>629.10259444799885</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="20"/>
-        <v>609.0248520719997</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="20"/>
-        <v>572.21565771600217</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="20"/>
-        <v>527.04073736999999</v>
-      </c>
-      <c r="I51">
-        <f t="shared" si="20"/>
-        <v>481.86581702400144</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="20"/>
-        <v>436.6908966780029</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="20"/>
-        <v>391.51597633200072</v>
-      </c>
-      <c r="L51">
-        <f t="shared" si="20"/>
-        <v>346.34105598600217</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="20"/>
-        <v>301.16613563999999</v>
-      </c>
-      <c r="N51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG51" t="e">
-        <f t="shared" si="20"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52">
-        <f>LOOKUP(C50,43:43,45:45)</f>
-        <v>25</v>
-      </c>
-      <c r="D52">
-        <f t="shared" ref="D52:AG52" si="21">LOOKUP(D50,43:43,45:45)</f>
-        <v>25</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="21"/>
-        <v>25</v>
-      </c>
-      <c r="N52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG52" t="e">
-        <f t="shared" si="21"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53">
-        <f>LOOKUP(C50,43:43,46:46)</f>
-        <v>20.077742375999968</v>
-      </c>
-      <c r="D53">
-        <f t="shared" ref="D53:AG53" si="22">LOOKUP(D50,43:43,46:46)</f>
-        <v>19.475410104719995</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="22"/>
-        <v>18.873077833439964</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="22"/>
-        <v>18.270745562159991</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="22"/>
-        <v>17.166469731480063</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="22"/>
-        <v>15.811222121099998</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="22"/>
-        <v>14.455974510720043</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="22"/>
-        <v>13.100726900340087</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="22"/>
-        <v>11.745479289960022</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="22"/>
-        <v>10.390231679580065</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="22"/>
-        <v>9.0349840692000001</v>
-      </c>
-      <c r="N53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG53" t="e">
-        <f t="shared" si="22"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C54">
-        <f>LOOKUP(C50,43:43,47:47)</f>
-        <v>82.773022106121246</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ref="D54:AG54" si="23">LOOKUP(D50,43:43,47:47)</f>
-        <v>80.289831442937711</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="23"/>
-        <v>77.806640779753963</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="23"/>
-        <v>75.323450116570413</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="23"/>
-        <v>70.77093390073405</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="23"/>
-        <v>65.183754908570592</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="23"/>
-        <v>59.596575916407573</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="23"/>
-        <v>54.009396924244555</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="23"/>
-        <v>48.422217932081097</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="23"/>
-        <v>42.835038939918078</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="23"/>
-        <v>37.24785994775462</v>
-      </c>
-      <c r="N54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG54" t="e">
-        <f t="shared" si="23"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="C63" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>236</v>
-      </c>
-      <c r="B64" s="3">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66">
-        <f>B61/(B64/1000)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>199</v>
-      </c>
-      <c r="B67" t="e">
-        <f>B62/B66</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C67" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B68" t="e">
-        <f>B67*0.9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" t="e">
-        <f>B68*0.5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1"/>
-      <c r="AG71" s="1"/>
-    </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C72">
-        <v>2020</v>
-      </c>
-      <c r="D72">
-        <v>2021</v>
-      </c>
-      <c r="E72">
-        <v>2022</v>
-      </c>
-      <c r="F72">
-        <v>2023</v>
-      </c>
-      <c r="G72">
-        <v>2024</v>
-      </c>
-      <c r="H72">
-        <v>2025</v>
-      </c>
-      <c r="I72">
-        <v>2026</v>
-      </c>
-      <c r="J72">
-        <v>2027</v>
-      </c>
-      <c r="K72">
-        <v>2028</v>
-      </c>
-      <c r="L72">
-        <v>2029</v>
-      </c>
-      <c r="M72">
-        <v>2030</v>
-      </c>
-      <c r="N72">
-        <v>2031</v>
-      </c>
-      <c r="O72">
-        <v>2032</v>
-      </c>
-      <c r="P72">
-        <v>2033</v>
-      </c>
-      <c r="Q72">
-        <v>2034</v>
-      </c>
-      <c r="R72">
-        <v>2035</v>
-      </c>
-      <c r="S72">
-        <v>2036</v>
-      </c>
-      <c r="T72">
-        <v>2037</v>
-      </c>
-      <c r="U72">
-        <v>2038</v>
-      </c>
-      <c r="V72">
-        <v>2039</v>
-      </c>
-      <c r="W72">
-        <v>2040</v>
-      </c>
-      <c r="X72">
-        <v>2041</v>
-      </c>
-      <c r="Y72">
-        <v>2042</v>
-      </c>
-      <c r="Z72">
-        <v>2043</v>
-      </c>
-      <c r="AA72">
-        <v>2044</v>
-      </c>
-      <c r="AB72">
-        <v>2045</v>
-      </c>
-      <c r="AC72">
-        <v>2046</v>
-      </c>
-      <c r="AD72">
-        <v>2047</v>
-      </c>
-      <c r="AE72">
-        <v>2048</v>
-      </c>
-      <c r="AF72">
-        <v>2049</v>
-      </c>
-      <c r="AG72">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="B73" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-    </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-    </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-      <c r="AG75" s="3"/>
-    </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1"/>
-      <c r="AG78" s="1"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <f>General!$B$9</f>
-        <v>2020</v>
-      </c>
-      <c r="D79">
-        <f>IF(C79=0,0,IF(General!$B$10 &gt; (C79-General!$B$9), C79+General!$B$11,0))</f>
-        <v>2023</v>
-      </c>
-      <c r="E79">
-        <f>IF(D79=0,0,IF(General!$B$10 &gt; (D79-General!$B$9), D79+General!$B$11,0))</f>
-        <v>2026</v>
-      </c>
-      <c r="F79">
-        <f>IF(E79=0,0,IF(General!$B$10 &gt; (E79-General!$B$9), E79+General!$B$11,0))</f>
-        <v>2029</v>
-      </c>
-      <c r="G79">
-        <f>IF(F79=0,0,IF(General!$B$10 &gt; (F79-General!$B$9), F79+General!$B$11,0))</f>
-        <v>2032</v>
-      </c>
-      <c r="H79">
-        <f>IF(G79=0,0,IF(General!$B$10 &gt; (G79-General!$B$9), G79+General!$B$11,0))</f>
-        <v>2035</v>
-      </c>
-      <c r="I79">
-        <f>IF(H79=0,0,IF(General!$B$10 &gt; (H79-General!$B$9), H79+General!$B$11,0))</f>
-        <v>2038</v>
-      </c>
-      <c r="J79">
-        <f>IF(I79=0,0,IF(General!$B$10 &gt; (I79-General!$B$9), I79+General!$B$11,0))</f>
-        <v>2041</v>
-      </c>
-      <c r="K79">
-        <f>IF(J79=0,0,IF(General!$B$10 &gt; (J79-General!$B$9), J79+General!$B$11,0))</f>
-        <v>2044</v>
-      </c>
-      <c r="L79">
-        <f>IF(K79=0,0,IF(General!$B$10 &gt; (K79-General!$B$9), K79+General!$B$11,0))</f>
-        <v>2047</v>
-      </c>
-      <c r="M79">
-        <f>IF(L79=0,0,IF(General!$B$10 &gt; (L79-General!$B$9), L79+General!$B$11,0))</f>
-        <v>2050</v>
-      </c>
-      <c r="N79">
-        <f>IF(M79=0,0,IF(General!$B$10 &gt; (M79-General!$B$9), M79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <f>IF(N79=0,0,IF(General!$B$10 &gt; (N79-General!$B$9), N79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <f>IF(O79=0,0,IF(General!$B$10 &gt; (O79-General!$B$9), O79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <f>IF(P79=0,0,IF(General!$B$10 &gt; (P79-General!$B$9), P79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <f>IF(Q79=0,0,IF(General!$B$10 &gt; (Q79-General!$B$9), Q79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <f>IF(R79=0,0,IF(General!$B$10 &gt; (R79-General!$B$9), R79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <f>IF(S79=0,0,IF(General!$B$10 &gt; (S79-General!$B$9), S79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f>IF(T79=0,0,IF(General!$B$10 &gt; (T79-General!$B$9), T79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <f>IF(U79=0,0,IF(General!$B$10 &gt; (U79-General!$B$9), U79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <f>IF(V79=0,0,IF(General!$B$10 &gt; (V79-General!$B$9), V79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <f>IF(W79=0,0,IF(General!$B$10 &gt; (W79-General!$B$9), W79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <f>IF(X79=0,0,IF(General!$B$10 &gt; (X79-General!$B$9), X79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <f>IF(Y79=0,0,IF(General!$B$10 &gt; (Y79-General!$B$9), Y79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <f>IF(Z79=0,0,IF(General!$B$10 &gt; (Z79-General!$B$9), Z79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <f>IF(AA79=0,0,IF(General!$B$10 &gt; (AA79-General!$B$9), AA79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <f>IF(AB79=0,0,IF(General!$B$10 &gt; (AB79-General!$B$9), AB79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <f>IF(AC79=0,0,IF(General!$B$10 &gt; (AC79-General!$B$9), AC79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <f>IF(AD79=0,0,IF(General!$B$10 &gt; (AD79-General!$B$9), AD79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <f>IF(AE79=0,0,IF(General!$B$10 &gt; (AE79-General!$B$9), AE79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <f>IF(AF79=0,0,IF(General!$B$10 &gt; (AF79-General!$B$9), AF79+General!$B$11,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>26</v>
-      </c>
-      <c r="C80">
-        <f>LOOKUP(C79,72:72,73:73)</f>
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <f t="shared" ref="D80:AG80" si="24">LOOKUP(D79,72:72,73:73)</f>
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="N80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG80" t="e">
-        <f t="shared" si="24"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81">
-        <f>LOOKUP(C79,72:72,74:74)</f>
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <f t="shared" ref="D81:AG81" si="25">LOOKUP(D79,72:72,74:74)</f>
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="N81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG81" t="e">
-        <f t="shared" si="25"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82">
-        <f>LOOKUP(C79,72:72,75:75)</f>
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <f t="shared" ref="D82:AG82" si="26">LOOKUP(D79,72:72,75:75)</f>
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="N82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG82" t="e">
-        <f t="shared" si="26"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83">
-        <f>LOOKUP(C79,72:72,76:76)</f>
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <f t="shared" ref="D83:AG83" si="27">LOOKUP(D79,72:72,76:76)</f>
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="N83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG83" t="e">
-        <f t="shared" si="27"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FC3E46-120F-45FB-B8A9-A6402E8BA3D8}">
   <dimension ref="A8:AG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6560,53 +2696,53 @@
         <v>106</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8">
         <f>10500/(324.5*60.69*33.8)+0.09</f>
         <v>0.10577396090688791</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="3">
         <f>8*0.94</f>
         <v>7.52</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <f>B10*C8</f>
         <v>797.12</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14">
         <f>324.5*60.69*33.8/600</f>
         <v>1109.423315</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14">
         <f>B14*0.4469</f>
@@ -6615,17 +2751,17 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15">
         <f>B14-(F14-F15)</f>
         <v>900.79686700486923</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15">
         <f>F14/(0.681*0.18/0.071)</f>
@@ -6634,7 +2770,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18">
         <f>0.4469*0.309</f>
@@ -6643,7 +2779,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19">
         <f>0.309*F15/B15</f>
@@ -10955,7 +7091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98031033-AF43-443A-84F2-40F322FA7B39}">
   <dimension ref="A1:A26"/>
   <sheetViews>
@@ -10967,106 +7103,80 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57BF954-040B-4091-B0C9-D912D5DFB1E2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AE91FC-F8D6-44F8-BE99-FE2852D91784}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11076,7 +7186,7 @@
   <dimension ref="A1:AG70"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11106,19 +7216,19 @@
       </c>
       <c r="B4" s="3">
         <f>Q10</f>
-        <v>4022699.9999999995</v>
+        <v>3840539.9999999995</v>
       </c>
       <c r="C4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="3">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
         <v>183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="3">
-        <v>200</v>
-      </c>
-      <c r="G4" t="s">
-        <v>184</v>
       </c>
       <c r="N4" t="s">
         <v>109</v>
@@ -11151,17 +7261,17 @@
         <v>81650</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="3">
         <f>110000*1.15/100</f>
         <v>1264.9999999999998</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O5" t="s">
         <v>97</v>
@@ -11178,7 +7288,7 @@
       </c>
       <c r="V5">
         <f>Q10*B7</f>
-        <v>48272399.999999993</v>
+        <v>46086479.999999993</v>
       </c>
       <c r="W5">
         <f>Q12*B7</f>
@@ -11212,22 +7322,22 @@
       </c>
       <c r="V6">
         <f>V5*B9</f>
-        <v>16790399.999999996</v>
+        <v>4055610.2399999993</v>
       </c>
       <c r="W6">
         <f>W5*B9</f>
-        <v>340800</v>
+        <v>86222.399999999994</v>
       </c>
       <c r="Y6">
         <v>2035</v>
       </c>
       <c r="Z6">
         <f>Z5*B9</f>
-        <v>6953739.1304347822</v>
+        <v>1759296</v>
       </c>
       <c r="AA6">
         <f>AA5*B9</f>
-        <v>563478.26086956519</v>
+        <v>142560</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -11256,22 +7366,22 @@
       </c>
       <c r="V7">
         <f>V6*B11</f>
-        <v>8395199.9999999981</v>
+        <v>2027805.1199999996</v>
       </c>
       <c r="W7">
         <f>W6*B11</f>
-        <v>170400</v>
+        <v>43111.199999999997</v>
       </c>
       <c r="Y7">
         <v>2050</v>
       </c>
       <c r="Z7">
         <f>Z6*B11</f>
-        <v>3476869.5652173911</v>
+        <v>879648</v>
       </c>
       <c r="AA7">
         <f>AA6*B11</f>
-        <v>281739.13043478259</v>
+        <v>71280</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -11288,14 +7398,13 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="B9" s="3">
-        <f>40/115</f>
-        <v>0.34782608695652173</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="O9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P9">
         <v>150000</v>
@@ -11307,7 +7416,7 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="O10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P10">
         <f>SUM(P5:P9)</f>
@@ -11315,18 +7424,18 @@
       </c>
       <c r="Q10">
         <f>P10*1.15+(F4-100)*F5</f>
-        <v>4022699.9999999995</v>
+        <v>3840539.9999999995</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="3">
         <v>0.5</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -11455,127 +7564,127 @@
       </c>
       <c r="C17" s="3">
         <f>_xlfn.FORECAST.LINEAR(C16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>64013400</v>
+        <v>67101914.880000114</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17:G17" si="1">_xlfn.FORECAST.LINEAR(D16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>60865200</v>
+        <v>62898827.904000282</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>57717000</v>
+        <v>58695740.92800045</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>54568800</v>
+        <v>54492653.951999664</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>51420600</v>
+        <v>50289566.975999832</v>
       </c>
       <c r="H17" s="3">
         <f>_xlfn.FORECAST.LINEAR(H16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>48272400</v>
+        <v>46086480</v>
       </c>
       <c r="I17" s="3">
         <f>_xlfn.FORECAST.LINEAR(I16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>45124200</v>
+        <v>41883393.024000168</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ref="J17:R17" si="2">_xlfn.FORECAST.LINEAR(J16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>41976000</v>
+        <v>37680306.048000336</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>38827800</v>
+        <v>33477219.07199955</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
-        <v>35679600</v>
+        <v>29274132.095999718</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>32531400</v>
+        <v>25071045.119999886</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="2"/>
-        <v>29383200</v>
+        <v>20867958.144000053</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="2"/>
-        <v>26235000</v>
+        <v>16664871.168000221</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>23086800</v>
+        <v>12461784.192000389</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="2"/>
-        <v>19938600</v>
+        <v>8258697.2159996033</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="2"/>
-        <v>16790400</v>
+        <v>4055610.2399997711</v>
       </c>
       <c r="S17" s="3">
         <f>_xlfn.FORECAST.LINEAR(S16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>16230720</v>
+        <v>3920423.2319999933</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ref="T17:AG17" si="3">_xlfn.FORECAST.LINEAR(T16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>15671040</v>
+        <v>3785236.2239999771</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="3"/>
-        <v>15111360</v>
+        <v>3650049.2159999609</v>
       </c>
       <c r="V17" s="3">
         <f>_xlfn.FORECAST.LINEAR(V16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>14551680</v>
+        <v>3514862.2080000043</v>
       </c>
       <c r="W17" s="3">
         <f>_xlfn.FORECAST.LINEAR(W16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>13992000</v>
+        <v>3379675.1999999881</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="3"/>
-        <v>13432320</v>
+        <v>3244488.1919999719</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="3"/>
-        <v>12872640</v>
+        <v>3109301.1839999557</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="3"/>
-        <v>12312960</v>
+        <v>2974114.175999999</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" si="3"/>
-        <v>11753280</v>
+        <v>2838927.1679999828</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" si="3"/>
-        <v>11193600</v>
+        <v>2703740.1599999666</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" si="3"/>
-        <v>10633920</v>
+        <v>2568553.1519999504</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" si="3"/>
-        <v>10074240</v>
+        <v>2433366.1439999938</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" si="3"/>
-        <v>9514560</v>
+        <v>2298179.1359999776</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" si="3"/>
-        <v>8954880</v>
+        <v>2162992.1279999614</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" si="3"/>
-        <v>8395200</v>
+        <v>2027805.1200000048</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -11682,127 +7791,127 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ref="C19:G19" si="4">_xlfn.FORECAST.LINEAR(C16,$W$5:$W$6,$U$5:$U$6)</f>
-        <v>1299300</v>
+        <v>1426588.7999999821</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="4"/>
-        <v>1235400</v>
+        <v>1337231.0399999917</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="4"/>
-        <v>1171500</v>
+        <v>1247873.2799999714</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="4"/>
-        <v>1107600</v>
+        <v>1158515.5199999809</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="4"/>
-        <v>1043700</v>
+        <v>1069157.7599999905</v>
       </c>
       <c r="H19" s="3">
         <f>_xlfn.FORECAST.LINEAR(H16,$W$5:$W$6,$U$5:$U$6)</f>
-        <v>979800</v>
+        <v>979799.9999999702</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" ref="I19:R19" si="5">_xlfn.FORECAST.LINEAR(I16,$W$5:$W$6,$U$5:$U$6)</f>
-        <v>915900</v>
+        <v>890442.23999997973</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="5"/>
-        <v>852000</v>
+        <v>801084.47999998927</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="5"/>
-        <v>788100</v>
+        <v>711726.71999996901</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="5"/>
-        <v>724200</v>
+        <v>622368.95999997854</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="5"/>
-        <v>660300</v>
+        <v>533011.19999998808</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="5"/>
-        <v>596400</v>
+        <v>443653.43999996781</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="5"/>
-        <v>532500</v>
+        <v>354295.67999997735</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="5"/>
-        <v>468600</v>
+        <v>264937.91999998689</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="5"/>
-        <v>404700</v>
+        <v>175580.15999996662</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="5"/>
-        <v>340800</v>
+        <v>86222.399999976158</v>
       </c>
       <c r="S19" s="3">
         <f>_xlfn.FORECAST.LINEAR(S16,$W$6:$W$7,$U$6:$U$7)</f>
-        <v>329440</v>
+        <v>83348.319999999367</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" ref="T19:AG19" si="6">_xlfn.FORECAST.LINEAR(T16,$W$6:$W$7,$U$6:$U$7)</f>
-        <v>318080</v>
+        <v>80474.239999999292</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="6"/>
-        <v>306720</v>
+        <v>77600.159999999218</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="6"/>
-        <v>295360</v>
+        <v>74726.079999999143</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" si="6"/>
-        <v>284000</v>
+        <v>71851.999999999069</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" si="6"/>
-        <v>272640</v>
+        <v>68977.919999998994</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" si="6"/>
-        <v>261280</v>
+        <v>66103.839999999851</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="6"/>
-        <v>249920</v>
+        <v>63229.759999999776</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" si="6"/>
-        <v>238560</v>
+        <v>60355.679999999702</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="6"/>
-        <v>227200</v>
+        <v>57481.599999999627</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="6"/>
-        <v>215840</v>
+        <v>54607.519999999553</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="6"/>
-        <v>204480</v>
+        <v>51733.439999999478</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="6"/>
-        <v>193120</v>
+        <v>48859.359999999404</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" si="6"/>
-        <v>181760</v>
+        <v>45985.279999999329</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="6"/>
-        <v>170400</v>
+        <v>43111.199999999255</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -11811,127 +7920,127 @@
       </c>
       <c r="C20">
         <f>((C17*General!$B$29*(1+General!$B$29)^C18)/((1+General!$B$29)^C18-1)+C19)</f>
-        <v>7295997.1549652554</v>
+        <v>7712614.2580074836</v>
       </c>
       <c r="D20">
         <f>((D17*General!$B$29*(1+General!$B$29)^D18)/((1+General!$B$29)^D18-1)+D19)</f>
-        <v>6937177.6227538493</v>
+        <v>7229516.4418466007</v>
       </c>
       <c r="E20">
         <f>((E17*General!$B$29*(1+General!$B$29)^E18)/((1+General!$B$29)^E18-1)+E19)</f>
-        <v>6578358.090542444</v>
+        <v>6746418.6256856881</v>
       </c>
       <c r="F20">
         <f>((F17*General!$B$29*(1+General!$B$29)^F18)/((1+General!$B$29)^F18-1)+F19)</f>
-        <v>6219538.5583310369</v>
+        <v>6263320.809524714</v>
       </c>
       <c r="G20">
         <f>((G17*General!$B$29*(1+General!$B$29)^G18)/((1+General!$B$29)^G18-1)+G19)</f>
-        <v>5860719.0261196317</v>
+        <v>5780222.9933638312</v>
       </c>
       <c r="H20">
         <f>((H17*General!$B$29*(1+General!$B$29)^H18)/((1+General!$B$29)^H18-1)+H19)</f>
-        <v>5501899.4939082256</v>
+        <v>5297125.1772029176</v>
       </c>
       <c r="I20">
         <f>((I17*General!$B$29*(1+General!$B$29)^I18)/((1+General!$B$29)^I18-1)+I19)</f>
-        <v>5143079.9616968194</v>
+        <v>4814027.3610420339</v>
       </c>
       <c r="J20">
         <f>((J17*General!$B$29*(1+General!$B$29)^J18)/((1+General!$B$29)^J18-1)+J19)</f>
-        <v>4784260.4294854142</v>
+        <v>4330929.5448811501</v>
       </c>
       <c r="K20">
         <f>((K17*General!$B$29*(1+General!$B$29)^K18)/((1+General!$B$29)^K18-1)+K19)</f>
-        <v>4425440.8972740071</v>
+        <v>3847831.7287201486</v>
       </c>
       <c r="L20">
         <f>((L17*General!$B$29*(1+General!$B$29)^L18)/((1+General!$B$29)^L18-1)+L19)</f>
-        <v>4066621.3650626014</v>
+        <v>3364733.9125592643</v>
       </c>
       <c r="M20">
         <f>((M17*General!$B$29*(1+General!$B$29)^M18)/((1+General!$B$29)^M18-1)+M19)</f>
-        <v>3707801.8328511952</v>
+        <v>2881636.0963983806</v>
       </c>
       <c r="N20">
         <f>((N17*General!$B$29*(1+General!$B$29)^N18)/((1+General!$B$29)^N18-1)+N19)</f>
-        <v>3348982.3006397896</v>
+        <v>2398538.2802374675</v>
       </c>
       <c r="O20">
         <f>((O17*General!$B$29*(1+General!$B$29)^O18)/((1+General!$B$29)^O18-1)+O19)</f>
-        <v>2990162.7684283834</v>
+        <v>1915440.464076584</v>
       </c>
       <c r="P20">
         <f>((P17*General!$B$29*(1+General!$B$29)^P18)/((1+General!$B$29)^P18-1)+P19)</f>
-        <v>2631343.2362169772</v>
+        <v>1432342.6479157005</v>
       </c>
       <c r="Q20">
         <f>((Q17*General!$B$29*(1+General!$B$29)^Q18)/((1+General!$B$29)^Q18-1)+Q19)</f>
-        <v>2272523.7040055715</v>
+        <v>949244.83175469772</v>
       </c>
       <c r="R20">
         <f>((R17*General!$B$29*(1+General!$B$29)^R18)/((1+General!$B$29)^R18-1)+R19)</f>
-        <v>1913704.1717941654</v>
+        <v>466147.01559381408</v>
       </c>
       <c r="S20">
         <f>((S17*General!$B$29*(1+General!$B$29)^S18)/((1+General!$B$29)^S18-1)+S19)</f>
-        <v>1849914.0327343598</v>
+        <v>450608.78174072946</v>
       </c>
       <c r="T20">
         <f>((T17*General!$B$29*(1+General!$B$29)^T18)/((1+General!$B$29)^T18-1)+T19)</f>
-        <v>1786123.8936745543</v>
+        <v>435070.54788759921</v>
       </c>
       <c r="U20">
         <f>((U17*General!$B$29*(1+General!$B$29)^U18)/((1+General!$B$29)^U18-1)+U19)</f>
-        <v>1722333.754614749</v>
+        <v>419532.31403446896</v>
       </c>
       <c r="V20">
         <f>((V17*General!$B$29*(1+General!$B$29)^V18)/((1+General!$B$29)^V18-1)+V19)</f>
-        <v>1658543.6155549434</v>
+        <v>403994.08018134435</v>
       </c>
       <c r="W20">
         <f>((W17*General!$B$29*(1+General!$B$29)^W18)/((1+General!$B$29)^W18-1)+W19)</f>
-        <v>1594753.4764951379</v>
+        <v>388455.84632821416</v>
       </c>
       <c r="X20">
         <f>((X17*General!$B$29*(1+General!$B$29)^X18)/((1+General!$B$29)^X18-1)+X19)</f>
-        <v>1530963.3374353324</v>
+        <v>372917.61247508385</v>
       </c>
       <c r="Y20">
         <f>((Y17*General!$B$29*(1+General!$B$29)^Y18)/((1+General!$B$29)^Y18-1)+Y19)</f>
-        <v>1467173.1983755268</v>
+        <v>357379.37862195453</v>
       </c>
       <c r="Z20">
         <f>((Z17*General!$B$29*(1+General!$B$29)^Z18)/((1+General!$B$29)^Z18-1)+Z19)</f>
-        <v>1403383.0593157213</v>
+        <v>341841.14476882992</v>
       </c>
       <c r="AA20">
         <f>((AA17*General!$B$29*(1+General!$B$29)^AA18)/((1+General!$B$29)^AA18-1)+AA19)</f>
-        <v>1339592.9202559157</v>
+        <v>326302.91091569967</v>
       </c>
       <c r="AB20">
         <f>((AB17*General!$B$29*(1+General!$B$29)^AB18)/((1+General!$B$29)^AB18-1)+AB19)</f>
-        <v>1275802.7811961104</v>
+        <v>310764.67706256942</v>
       </c>
       <c r="AC20">
         <f>((AC17*General!$B$29*(1+General!$B$29)^AC18)/((1+General!$B$29)^AC18-1)+AC19)</f>
-        <v>1212012.6421363046</v>
+        <v>295226.44320943917</v>
       </c>
       <c r="AD20">
         <f>((AD17*General!$B$29*(1+General!$B$29)^AD18)/((1+General!$B$29)^AD18-1)+AD19)</f>
-        <v>1148222.5030764993</v>
+        <v>279688.2093563145</v>
       </c>
       <c r="AE20">
         <f>((AE17*General!$B$29*(1+General!$B$29)^AE18)/((1+General!$B$29)^AE18-1)+AE19)</f>
-        <v>1084432.3640166938</v>
+        <v>264149.97550318425</v>
       </c>
       <c r="AF20">
         <f>((AF17*General!$B$29*(1+General!$B$29)^AF18)/((1+General!$B$29)^AF18-1)+AF19)</f>
-        <v>1020642.2249568882</v>
+        <v>248611.74165005403</v>
       </c>
       <c r="AG20">
         <f>((AG17*General!$B$29*(1+General!$B$29)^AG18)/((1+General!$B$29)^AG18-1)+AG19)</f>
-        <v>956852.0858970827</v>
+        <v>233073.50779692942</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -13044,47 +9153,47 @@
       </c>
       <c r="C45">
         <f>LOOKUP(C44,16:16,17:17)</f>
-        <v>64013400</v>
+        <v>67101914.880000114</v>
       </c>
       <c r="D45">
         <f t="shared" ref="D45:AG45" si="11">LOOKUP(D44,16:16,17:17)</f>
-        <v>54568800</v>
+        <v>54492653.951999664</v>
       </c>
       <c r="E45">
         <f t="shared" si="11"/>
-        <v>45124200</v>
+        <v>41883393.024000168</v>
       </c>
       <c r="F45">
         <f t="shared" si="11"/>
-        <v>35679600</v>
+        <v>29274132.095999718</v>
       </c>
       <c r="G45">
         <f t="shared" si="11"/>
-        <v>26235000</v>
+        <v>16664871.168000221</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
-        <v>16790400</v>
+        <v>4055610.2399997711</v>
       </c>
       <c r="I45">
         <f t="shared" si="11"/>
-        <v>15111360</v>
+        <v>3650049.2159999609</v>
       </c>
       <c r="J45">
         <f t="shared" si="11"/>
-        <v>13432320</v>
+        <v>3244488.1919999719</v>
       </c>
       <c r="K45">
         <f t="shared" si="11"/>
-        <v>11753280</v>
+        <v>2838927.1679999828</v>
       </c>
       <c r="L45">
         <f t="shared" si="11"/>
-        <v>10074240</v>
+        <v>2433366.1439999938</v>
       </c>
       <c r="M45">
         <f t="shared" si="11"/>
-        <v>8395200</v>
+        <v>2027805.1200000048</v>
       </c>
       <c r="N45" t="e">
         <f t="shared" si="11"/>
@@ -13302,47 +9411,47 @@
       </c>
       <c r="C47">
         <f>LOOKUP(C44,16:16,19:19)</f>
-        <v>1299300</v>
+        <v>1426588.7999999821</v>
       </c>
       <c r="D47">
         <f t="shared" ref="D47:AG47" si="13">LOOKUP(D44,16:16,19:19)</f>
-        <v>1107600</v>
+        <v>1158515.5199999809</v>
       </c>
       <c r="E47">
         <f t="shared" si="13"/>
-        <v>915900</v>
+        <v>890442.23999997973</v>
       </c>
       <c r="F47">
         <f t="shared" si="13"/>
-        <v>724200</v>
+        <v>622368.95999997854</v>
       </c>
       <c r="G47">
         <f t="shared" si="13"/>
-        <v>532500</v>
+        <v>354295.67999997735</v>
       </c>
       <c r="H47">
         <f t="shared" si="13"/>
-        <v>340800</v>
+        <v>86222.399999976158</v>
       </c>
       <c r="I47">
         <f t="shared" si="13"/>
-        <v>306720</v>
+        <v>77600.159999999218</v>
       </c>
       <c r="J47">
         <f t="shared" si="13"/>
-        <v>272640</v>
+        <v>68977.919999998994</v>
       </c>
       <c r="K47">
         <f t="shared" si="13"/>
-        <v>238560</v>
+        <v>60355.679999999702</v>
       </c>
       <c r="L47">
         <f t="shared" si="13"/>
-        <v>204480</v>
+        <v>51733.439999999478</v>
       </c>
       <c r="M47">
         <f t="shared" si="13"/>
-        <v>170400</v>
+        <v>43111.199999999255</v>
       </c>
       <c r="N47" t="e">
         <f t="shared" si="13"/>
@@ -13431,47 +9540,47 @@
       </c>
       <c r="C48">
         <f>LOOKUP(C44,16:16,20:20)</f>
-        <v>7295997.1549652554</v>
+        <v>7712614.2580074836</v>
       </c>
       <c r="D48">
         <f t="shared" ref="D48:AG48" si="14">LOOKUP(D44,16:16,20:20)</f>
-        <v>6219538.5583310369</v>
+        <v>6263320.809524714</v>
       </c>
       <c r="E48">
         <f t="shared" si="14"/>
-        <v>5143079.9616968194</v>
+        <v>4814027.3610420339</v>
       </c>
       <c r="F48">
         <f t="shared" si="14"/>
-        <v>4066621.3650626014</v>
+        <v>3364733.9125592643</v>
       </c>
       <c r="G48">
         <f t="shared" si="14"/>
-        <v>2990162.7684283834</v>
+        <v>1915440.464076584</v>
       </c>
       <c r="H48">
         <f t="shared" si="14"/>
-        <v>1913704.1717941654</v>
+        <v>466147.01559381408</v>
       </c>
       <c r="I48">
         <f t="shared" si="14"/>
-        <v>1722333.754614749</v>
+        <v>419532.31403446896</v>
       </c>
       <c r="J48">
         <f t="shared" si="14"/>
-        <v>1530963.3374353324</v>
+        <v>372917.61247508385</v>
       </c>
       <c r="K48">
         <f t="shared" si="14"/>
-        <v>1339592.9202559157</v>
+        <v>326302.91091569967</v>
       </c>
       <c r="L48">
         <f t="shared" si="14"/>
-        <v>1148222.5030764993</v>
+        <v>279688.2093563145</v>
       </c>
       <c r="M48">
         <f t="shared" si="14"/>
-        <v>956852.0858970827</v>
+        <v>233073.50779692942</v>
       </c>
       <c r="N48" t="e">
         <f t="shared" si="14"/>
@@ -15655,7 +11764,7 @@
   <dimension ref="A1:AG73"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19:AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15814,7 +11923,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="3">
         <v>603.55818010389714</v>
@@ -15920,7 +12029,7 @@
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B14" s="3">
         <f>B10*$B$12</f>
@@ -21112,7 +17221,7 @@
   <dimension ref="A1:AG71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21149,7 +17258,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -21174,7 +17283,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="3">
         <v>20</v>
@@ -21194,28 +17303,28 @@
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="3">
         <v>0.4</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
         <v>162</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>163</v>
       </c>
-      <c r="H9" t="s">
-        <v>164</v>
-      </c>
       <c r="I9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J9" t="s">
         <v>168</v>
-      </c>
-      <c r="J9" t="s">
-        <v>169</v>
       </c>
       <c r="O9">
         <v>2030</v>
@@ -21229,7 +17338,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10">
         <v>35</v>
@@ -21260,17 +17369,17 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11" s="3">
         <f>J10</f>
         <v>0.82361575470928805</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11">
         <v>35</v>
@@ -21304,41 +17413,41 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" s="3">
         <f>J11</f>
         <v>0.9196588460254348</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B15">
         <f>FPSO!B14*Electrolyzer!B8</f>
         <v>22188.4663</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B16" s="6">
         <f>FPSO!B15*Electrolyzer!B8</f>
         <v>18015.937340097385</v>
       </c>
       <c r="C16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25738,17 +21847,17 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="3">
         <f>C7/1000/365/24</f>
         <v>4.166666666666667</v>
       </c>
       <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
         <v>126</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -30051,7 +26160,7 @@
   <dimension ref="A1:AG172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30079,61 +26188,61 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="11">
         <f>100000/365</f>
         <v>273.97260273972603</v>
       </c>
       <c r="J4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" s="3">
         <v>1200</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="3">
         <v>0.18</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I6" s="3">
         <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I7" s="3">
         <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="H9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I9">
         <f>I6/I7*I5/I4</f>
@@ -30148,22 +26257,22 @@
         <v>10000</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9">
         <f>1/(0.177/B6)</f>
         <v>1.0169491525423728</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -34476,7 +30585,7 @@
         <v>1600000</v>
       </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
@@ -34487,7 +30596,7 @@
         <v>1200</v>
       </c>
       <c r="C71" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
@@ -34499,18 +30608,18 @@
         <v>78840</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75" s="3">
         <v>10000</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -38817,7 +34926,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141">
         <v>10000</v>
@@ -38826,7 +34935,7 @@
         <v>20000</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -38842,14 +34951,14 @@
         <v>65.8</v>
       </c>
       <c r="D142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H142">
         <f>(0.2+0.7)/2</f>
         <v>0.44999999999999996</v>
       </c>
       <c r="I142" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -38862,47 +34971,47 @@
         <v>365.55555555555554</v>
       </c>
       <c r="D143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H143">
         <f>H142/1000</f>
         <v>4.4999999999999993E-4</v>
       </c>
       <c r="I143" t="s">
+        <v>229</v>
+      </c>
+      <c r="J143" t="s">
         <v>230</v>
       </c>
-      <c r="J143" t="s">
+      <c r="K143" t="s">
         <v>231</v>
-      </c>
-      <c r="K143" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="7">
         <f>(C143-B143)/(C141-B141)</f>
         <v>1.044444444444444E-2</v>
       </c>
       <c r="C145" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B146" s="6">
         <f>B143-B141*B145</f>
         <v>156.66666666666674</v>
       </c>
       <c r="C146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K146" s="12"/>
       <c r="M146" s="6"/>
@@ -38922,12 +35031,12 @@
         <v>2050</v>
       </c>
       <c r="F149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150">
         <f>B145</f>
@@ -38944,7 +35053,7 @@
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151">
         <f>B146</f>
@@ -39056,7 +35165,7 @@
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154">
         <f>_xlfn.FORECAST.LINEAR(B153,$B$150:$C$150,$B$149:$C$149)</f>
@@ -39185,7 +35294,7 @@
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B155">
         <f>_xlfn.FORECAST.LINEAR(B153,$B$151:$C$151,$B$149:$C$149)</f>
@@ -39445,7 +35554,7 @@
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C158">
         <f t="shared" ref="C158:AG158" si="56">LOOKUP(C157,153:153,154:154)</f>
@@ -39574,7 +35683,7 @@
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159">
         <f t="shared" ref="C159:AG159" si="57">LOOKUP(C157,153:153,155:155)</f>
@@ -39755,7 +35864,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -39861,7 +35970,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="6">
         <v>5982.9059829059834</v>
@@ -39960,7 +36069,7 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="6">
         <v>239.31623931623935</v>
@@ -40093,7 +36202,7 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B22" s="6">
         <f>0.94*B19</f>
@@ -40223,7 +36332,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B23" s="6">
         <f>0.94*B20</f>
@@ -40353,13 +36462,13 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B25" s="3">
         <v>10000</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -44658,7 +40767,7 @@
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" s="3">
         <v>0.2</v>
@@ -44671,16 +40780,16 @@
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="3">
         <v>10000</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -48993,7 +45102,7 @@
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B151">
         <v>10000</v>
@@ -49002,7 +45111,7 @@
         <v>20000</v>
       </c>
       <c r="D151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.25">
@@ -49018,31 +45127,31 @@
         <v>1438.2</v>
       </c>
       <c r="D152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154">
         <f>(C152-B152)/(C151-B151)</f>
         <v>3.2899999999999999E-2</v>
       </c>
       <c r="C154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B155">
         <f>B152-B151*B154</f>
         <v>780.2</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:31" x14ac:dyDescent="0.25">
@@ -49062,12 +45171,12 @@
         <v>2050</v>
       </c>
       <c r="F158" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B159">
         <f>B154</f>
@@ -49084,7 +45193,7 @@
     </row>
     <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B160">
         <f>B155</f>
@@ -49196,7 +45305,7 @@
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B163">
         <f>_xlfn.FORECAST.LINEAR(B162,$B$159:$C$159,$B$158:$C$158)</f>
@@ -49325,7 +45434,7 @@
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B164">
         <f>_xlfn.FORECAST.LINEAR(B162,$B$160:$C$160,$B$158:$C$158)</f>
@@ -49585,7 +45694,7 @@
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C168">
         <f t="shared" ref="C168:AG168" si="68">LOOKUP(C167,162:162,163:163)</f>
@@ -49714,7 +45823,7 @@
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C169">
         <f t="shared" ref="C169:AG169" si="69">LOOKUP(C167,162:162,164:164)</f>
@@ -49887,18 +45996,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5ADA41F-2B7B-443E-8885-2AEB2F849F30}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6589D855-1509-43EC-BACA-1338277ADF6D}">
   <dimension ref="A1:AG37"/>
   <sheetViews>
@@ -50019,7 +46116,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <f>1.77797484577933*0.94</f>
@@ -50246,7 +46343,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B6">
         <f>0.066674056716725*0.94</f>
@@ -50375,7 +46472,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <f>(B4*General!$B$29*(1+General!$B$29)^B5)/((1+General!$B$29)^B5-1)+B6</f>
@@ -51026,7 +47123,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
@@ -51693,7 +47790,3883 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BF2731-C1BE-4102-92A2-D2E64F19F1BE}">
+  <dimension ref="A1:AG83"/>
+  <sheetViews>
+    <sheetView topLeftCell="I25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:M54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3190</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="3">
+        <f>290000000*0.94</f>
+        <v>272600000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8">
+        <f>B3/(B6/1000)</f>
+        <v>44929.577464788737</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9">
+        <f>B4/B8</f>
+        <v>6067.272727272727</v>
+      </c>
+      <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10">
+        <f>B9*0.9</f>
+        <v>5460.545454545454</v>
+      </c>
+      <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <f>B10*0.5</f>
+        <v>2730.272727272727</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+      <c r="F14">
+        <v>2023</v>
+      </c>
+      <c r="G14">
+        <v>2024</v>
+      </c>
+      <c r="H14">
+        <v>2025</v>
+      </c>
+      <c r="I14">
+        <v>2026</v>
+      </c>
+      <c r="J14">
+        <v>2027</v>
+      </c>
+      <c r="K14">
+        <v>2028</v>
+      </c>
+      <c r="L14">
+        <v>2029</v>
+      </c>
+      <c r="M14">
+        <v>2030</v>
+      </c>
+      <c r="N14">
+        <v>2031</v>
+      </c>
+      <c r="O14">
+        <v>2032</v>
+      </c>
+      <c r="P14">
+        <v>2033</v>
+      </c>
+      <c r="Q14">
+        <v>2034</v>
+      </c>
+      <c r="R14">
+        <v>2035</v>
+      </c>
+      <c r="S14">
+        <v>2036</v>
+      </c>
+      <c r="T14">
+        <v>2037</v>
+      </c>
+      <c r="U14">
+        <v>2038</v>
+      </c>
+      <c r="V14">
+        <v>2039</v>
+      </c>
+      <c r="W14">
+        <v>2040</v>
+      </c>
+      <c r="X14">
+        <v>2041</v>
+      </c>
+      <c r="Y14">
+        <v>2042</v>
+      </c>
+      <c r="Z14">
+        <v>2043</v>
+      </c>
+      <c r="AA14">
+        <v>2044</v>
+      </c>
+      <c r="AB14">
+        <v>2045</v>
+      </c>
+      <c r="AC14">
+        <v>2046</v>
+      </c>
+      <c r="AD14">
+        <v>2047</v>
+      </c>
+      <c r="AE14">
+        <v>2048</v>
+      </c>
+      <c r="AF14">
+        <v>2049</v>
+      </c>
+      <c r="AG14">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3">
+        <f>_xlfn.FORECAST.LINEAR(C14,$B$9:$B$10,$E$9:$E$10)</f>
+        <v>6067.2727272727207</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:M15" si="0">_xlfn.FORECAST.LINEAR(D14,$B$9:$B$10,$E$9:$E$10)</f>
+        <v>6006.5999999999913</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>5945.9272727272619</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>5885.2545454545325</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="0"/>
+        <v>5824.5818181818177</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>5763.9090909090883</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>5703.2363636363589</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>5642.5636363636295</v>
+      </c>
+      <c r="K15" s="3">
+        <f t="shared" si="0"/>
+        <v>5581.8909090909001</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="0"/>
+        <v>5521.2181818181707</v>
+      </c>
+      <c r="M15" s="3">
+        <f t="shared" si="0"/>
+        <v>5460.5454545454413</v>
+      </c>
+      <c r="N15" s="3">
+        <f>_xlfn.FORECAST.LINEAR(N14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>5324.0318181818584</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" ref="O15:V15" si="1">_xlfn.FORECAST.LINEAR(O14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>5187.5181818182464</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="1"/>
+        <v>5051.0045454545761</v>
+      </c>
+      <c r="Q15" s="3">
+        <f t="shared" si="1"/>
+        <v>4914.4909090909641</v>
+      </c>
+      <c r="R15" s="3">
+        <f t="shared" si="1"/>
+        <v>4777.9772727272939</v>
+      </c>
+      <c r="S15" s="3">
+        <f t="shared" si="1"/>
+        <v>4641.4636363636819</v>
+      </c>
+      <c r="T15" s="3">
+        <f t="shared" si="1"/>
+        <v>4504.9500000000698</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="1"/>
+        <v>4368.4363636363996</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="1"/>
+        <v>4231.9227272727876</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" ref="W15" si="2">_xlfn.FORECAST.LINEAR(W14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>4095.4090909091174</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" ref="X15" si="3">_xlfn.FORECAST.LINEAR(X14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>3958.8954545455053</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" ref="Y15" si="4">_xlfn.FORECAST.LINEAR(Y14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>3822.3818181818933</v>
+      </c>
+      <c r="Z15" s="3">
+        <f t="shared" ref="Z15" si="5">_xlfn.FORECAST.LINEAR(Z14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>3685.8681818182231</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" ref="AA15" si="6">_xlfn.FORECAST.LINEAR(AA14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>3549.3545454546111</v>
+      </c>
+      <c r="AB15" s="3">
+        <f t="shared" ref="AB15" si="7">_xlfn.FORECAST.LINEAR(AB14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>3412.8409090909408</v>
+      </c>
+      <c r="AC15" s="3">
+        <f t="shared" ref="AC15:AD15" si="8">_xlfn.FORECAST.LINEAR(AC14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>3276.3272727273288</v>
+      </c>
+      <c r="AD15" s="3">
+        <f t="shared" si="8"/>
+        <v>3139.8136363636586</v>
+      </c>
+      <c r="AE15" s="3">
+        <f t="shared" ref="AE15" si="9">_xlfn.FORECAST.LINEAR(AE14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>3003.3000000000466</v>
+      </c>
+      <c r="AF15" s="3">
+        <f t="shared" ref="AF15" si="10">_xlfn.FORECAST.LINEAR(AF14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>2866.7863636364345</v>
+      </c>
+      <c r="AG15" s="3">
+        <f t="shared" ref="AG15" si="11">_xlfn.FORECAST.LINEAR(AG14,$B$10:$B$11,$E$10:$E$11)</f>
+        <v>2730.2727272727643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3">
+        <v>30</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3">
+        <v>30</v>
+      </c>
+      <c r="G16" s="3">
+        <v>30</v>
+      </c>
+      <c r="H16" s="3">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3">
+        <v>30</v>
+      </c>
+      <c r="K16" s="3">
+        <v>30</v>
+      </c>
+      <c r="L16" s="3">
+        <v>30</v>
+      </c>
+      <c r="M16" s="3">
+        <v>30</v>
+      </c>
+      <c r="N16" s="3">
+        <v>30</v>
+      </c>
+      <c r="O16" s="3">
+        <v>30</v>
+      </c>
+      <c r="P16" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>30</v>
+      </c>
+      <c r="R16" s="3">
+        <v>30</v>
+      </c>
+      <c r="S16" s="3">
+        <v>30</v>
+      </c>
+      <c r="T16" s="3">
+        <v>30</v>
+      </c>
+      <c r="U16" s="3">
+        <v>30</v>
+      </c>
+      <c r="V16" s="3">
+        <v>30</v>
+      </c>
+      <c r="W16" s="3">
+        <v>30</v>
+      </c>
+      <c r="X16" s="3">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>30</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C15*$B$5</f>
+        <v>242.69090909090883</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17:AG17" si="12">D15*$B$5</f>
+        <v>240.26399999999967</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="12"/>
+        <v>237.83709090909048</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="12"/>
+        <v>235.41018181818131</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="12"/>
+        <v>232.98327272727272</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="12"/>
+        <v>230.55636363636353</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="12"/>
+        <v>228.12945454545437</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="12"/>
+        <v>225.70254545454517</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="12"/>
+        <v>223.27563636363601</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="12"/>
+        <v>220.84872727272682</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="12"/>
+        <v>218.42181818181766</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="12"/>
+        <v>212.96127272727435</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="12"/>
+        <v>207.50072727272985</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="12"/>
+        <v>202.04018181818304</v>
+      </c>
+      <c r="Q17" s="3">
+        <f t="shared" si="12"/>
+        <v>196.57963636363857</v>
+      </c>
+      <c r="R17" s="3">
+        <f t="shared" si="12"/>
+        <v>191.11909090909177</v>
+      </c>
+      <c r="S17" s="3">
+        <f t="shared" si="12"/>
+        <v>185.65854545454727</v>
+      </c>
+      <c r="T17" s="3">
+        <f t="shared" si="12"/>
+        <v>180.19800000000279</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="12"/>
+        <v>174.73745454545599</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="12"/>
+        <v>169.27690909091152</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="12"/>
+        <v>163.81636363636468</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="12"/>
+        <v>158.35581818182021</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="12"/>
+        <v>152.89527272727574</v>
+      </c>
+      <c r="Z17" s="3">
+        <f t="shared" si="12"/>
+        <v>147.43472727272894</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="12"/>
+        <v>141.97418181818443</v>
+      </c>
+      <c r="AB17" s="3">
+        <f t="shared" si="12"/>
+        <v>136.51363636363763</v>
+      </c>
+      <c r="AC17" s="3">
+        <f t="shared" si="12"/>
+        <v>131.05309090909316</v>
+      </c>
+      <c r="AD17" s="3">
+        <f t="shared" si="12"/>
+        <v>125.59254545454634</v>
+      </c>
+      <c r="AE17" s="3">
+        <f t="shared" si="12"/>
+        <v>120.13200000000187</v>
+      </c>
+      <c r="AF17" s="3">
+        <f t="shared" si="12"/>
+        <v>114.67145454545738</v>
+      </c>
+      <c r="AG17" s="3">
+        <f t="shared" si="12"/>
+        <v>109.21090909091058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <f>((C15*General!$B$29*(1+General!$B$29)^C16)/((1+General!$B$29)^C16-1)+C17)</f>
+        <v>781.6311731151402</v>
+      </c>
+      <c r="D18">
+        <f>((D15*General!$B$29*(1+General!$B$29)^D16)/((1+General!$B$29)^D16-1)+D17)</f>
+        <v>773.8148613839885</v>
+      </c>
+      <c r="E18">
+        <f>((E15*General!$B$29*(1+General!$B$29)^E16)/((1+General!$B$29)^E16-1)+E17)</f>
+        <v>765.9985496528368</v>
+      </c>
+      <c r="F18">
+        <f>((F15*General!$B$29*(1+General!$B$29)^F16)/((1+General!$B$29)^F16-1)+F17)</f>
+        <v>758.18223792168521</v>
+      </c>
+      <c r="G18">
+        <f>((G15*General!$B$29*(1+General!$B$29)^G16)/((1+General!$B$29)^G16-1)+G17)</f>
+        <v>750.36592619053545</v>
+      </c>
+      <c r="H18">
+        <f>((H15*General!$B$29*(1+General!$B$29)^H16)/((1+General!$B$29)^H16-1)+H17)</f>
+        <v>742.54961445938375</v>
+      </c>
+      <c r="I18">
+        <f>((I15*General!$B$29*(1+General!$B$29)^I16)/((1+General!$B$29)^I16-1)+I17)</f>
+        <v>734.73330272823193</v>
+      </c>
+      <c r="J18">
+        <f>((J15*General!$B$29*(1+General!$B$29)^J16)/((1+General!$B$29)^J16-1)+J17)</f>
+        <v>726.91699099708023</v>
+      </c>
+      <c r="K18">
+        <f>((K15*General!$B$29*(1+General!$B$29)^K16)/((1+General!$B$29)^K16-1)+K17)</f>
+        <v>719.10067926592865</v>
+      </c>
+      <c r="L18">
+        <f>((L15*General!$B$29*(1+General!$B$29)^L16)/((1+General!$B$29)^L16-1)+L17)</f>
+        <v>711.28436753477695</v>
+      </c>
+      <c r="M18">
+        <f>((M15*General!$B$29*(1+General!$B$29)^M16)/((1+General!$B$29)^M16-1)+M17)</f>
+        <v>703.46805580362525</v>
+      </c>
+      <c r="N18">
+        <f>((N15*General!$B$29*(1+General!$B$29)^N16)/((1+General!$B$29)^N16-1)+N17)</f>
+        <v>685.88135440854148</v>
+      </c>
+      <c r="O18">
+        <f>((O15*General!$B$29*(1+General!$B$29)^O16)/((1+General!$B$29)^O16-1)+O17)</f>
+        <v>668.29465301345385</v>
+      </c>
+      <c r="P18">
+        <f>((P15*General!$B$29*(1+General!$B$29)^P16)/((1+General!$B$29)^P16-1)+P17)</f>
+        <v>650.70795161835895</v>
+      </c>
+      <c r="Q18">
+        <f>((Q15*General!$B$29*(1+General!$B$29)^Q16)/((1+General!$B$29)^Q16-1)+Q17)</f>
+        <v>633.12125022327143</v>
+      </c>
+      <c r="R18">
+        <f>((R15*General!$B$29*(1+General!$B$29)^R16)/((1+General!$B$29)^R16-1)+R17)</f>
+        <v>615.53454882817641</v>
+      </c>
+      <c r="S18">
+        <f>((S15*General!$B$29*(1+General!$B$29)^S16)/((1+General!$B$29)^S16-1)+S17)</f>
+        <v>597.94784743308878</v>
+      </c>
+      <c r="T18">
+        <f>((T15*General!$B$29*(1+General!$B$29)^T16)/((1+General!$B$29)^T16-1)+T17)</f>
+        <v>580.36114603800127</v>
+      </c>
+      <c r="U18">
+        <f>((U15*General!$B$29*(1+General!$B$29)^U16)/((1+General!$B$29)^U16-1)+U17)</f>
+        <v>562.77444464290625</v>
+      </c>
+      <c r="V18">
+        <f>((V15*General!$B$29*(1+General!$B$29)^V16)/((1+General!$B$29)^V16-1)+V17)</f>
+        <v>545.18774324781873</v>
+      </c>
+      <c r="W18">
+        <f>((W15*General!$B$29*(1+General!$B$29)^W16)/((1+General!$B$29)^W16-1)+W17)</f>
+        <v>527.6010418527236</v>
+      </c>
+      <c r="X18">
+        <f>((X15*General!$B$29*(1+General!$B$29)^X16)/((1+General!$B$29)^X16-1)+X17)</f>
+        <v>510.01434045763608</v>
+      </c>
+      <c r="Y18">
+        <f>((Y15*General!$B$29*(1+General!$B$29)^Y16)/((1+General!$B$29)^Y16-1)+Y17)</f>
+        <v>492.42763906254856</v>
+      </c>
+      <c r="Z18">
+        <f>((Z15*General!$B$29*(1+General!$B$29)^Z16)/((1+General!$B$29)^Z16-1)+Z17)</f>
+        <v>474.84093766745349</v>
+      </c>
+      <c r="AA18">
+        <f>((AA15*General!$B$29*(1+General!$B$29)^AA16)/((1+General!$B$29)^AA16-1)+AA17)</f>
+        <v>457.25423627236597</v>
+      </c>
+      <c r="AB18">
+        <f>((AB15*General!$B$29*(1+General!$B$29)^AB16)/((1+General!$B$29)^AB16-1)+AB17)</f>
+        <v>439.6675348772709</v>
+      </c>
+      <c r="AC18">
+        <f>((AC15*General!$B$29*(1+General!$B$29)^AC16)/((1+General!$B$29)^AC16-1)+AC17)</f>
+        <v>422.08083348218344</v>
+      </c>
+      <c r="AD18">
+        <f>((AD15*General!$B$29*(1+General!$B$29)^AD16)/((1+General!$B$29)^AD16-1)+AD17)</f>
+        <v>404.49413208708836</v>
+      </c>
+      <c r="AE18">
+        <f>((AE15*General!$B$29*(1+General!$B$29)^AE16)/((1+General!$B$29)^AE16-1)+AE17)</f>
+        <v>386.90743069200084</v>
+      </c>
+      <c r="AF18">
+        <f>((AF15*General!$B$29*(1+General!$B$29)^AF16)/((1+General!$B$29)^AF16-1)+AF17)</f>
+        <v>369.32072929691327</v>
+      </c>
+      <c r="AG18">
+        <f>((AG15*General!$B$29*(1+General!$B$29)^AG16)/((1+General!$B$29)^AG16-1)+AG17)</f>
+        <v>351.73402790181819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>General!$B$9</f>
+        <v>2020</v>
+      </c>
+      <c r="D21">
+        <f>IF(C21=0,0,IF(General!$B$10 &gt; (C21-General!$B$9), C21+General!$B$11,0))</f>
+        <v>2023</v>
+      </c>
+      <c r="E21">
+        <f>IF(D21=0,0,IF(General!$B$10 &gt; (D21-General!$B$9), D21+General!$B$11,0))</f>
+        <v>2026</v>
+      </c>
+      <c r="F21">
+        <f>IF(E21=0,0,IF(General!$B$10 &gt; (E21-General!$B$9), E21+General!$B$11,0))</f>
+        <v>2029</v>
+      </c>
+      <c r="G21">
+        <f>IF(F21=0,0,IF(General!$B$10 &gt; (F21-General!$B$9), F21+General!$B$11,0))</f>
+        <v>2032</v>
+      </c>
+      <c r="H21">
+        <f>IF(G21=0,0,IF(General!$B$10 &gt; (G21-General!$B$9), G21+General!$B$11,0))</f>
+        <v>2035</v>
+      </c>
+      <c r="I21">
+        <f>IF(H21=0,0,IF(General!$B$10 &gt; (H21-General!$B$9), H21+General!$B$11,0))</f>
+        <v>2038</v>
+      </c>
+      <c r="J21">
+        <f>IF(I21=0,0,IF(General!$B$10 &gt; (I21-General!$B$9), I21+General!$B$11,0))</f>
+        <v>2041</v>
+      </c>
+      <c r="K21">
+        <f>IF(J21=0,0,IF(General!$B$10 &gt; (J21-General!$B$9), J21+General!$B$11,0))</f>
+        <v>2044</v>
+      </c>
+      <c r="L21">
+        <f>IF(K21=0,0,IF(General!$B$10 &gt; (K21-General!$B$9), K21+General!$B$11,0))</f>
+        <v>2047</v>
+      </c>
+      <c r="M21">
+        <f>IF(L21=0,0,IF(General!$B$10 &gt; (L21-General!$B$9), L21+General!$B$11,0))</f>
+        <v>2050</v>
+      </c>
+      <c r="N21">
+        <f>IF(M21=0,0,IF(General!$B$10 &gt; (M21-General!$B$9), M21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>IF(N21=0,0,IF(General!$B$10 &gt; (N21-General!$B$9), N21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>IF(O21=0,0,IF(General!$B$10 &gt; (O21-General!$B$9), O21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f>IF(P21=0,0,IF(General!$B$10 &gt; (P21-General!$B$9), P21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f>IF(Q21=0,0,IF(General!$B$10 &gt; (Q21-General!$B$9), Q21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f>IF(R21=0,0,IF(General!$B$10 &gt; (R21-General!$B$9), R21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>IF(S21=0,0,IF(General!$B$10 &gt; (S21-General!$B$9), S21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f>IF(T21=0,0,IF(General!$B$10 &gt; (T21-General!$B$9), T21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>IF(U21=0,0,IF(General!$B$10 &gt; (U21-General!$B$9), U21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>IF(V21=0,0,IF(General!$B$10 &gt; (V21-General!$B$9), V21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f>IF(W21=0,0,IF(General!$B$10 &gt; (W21-General!$B$9), W21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f>IF(X21=0,0,IF(General!$B$10 &gt; (X21-General!$B$9), X21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <f>IF(Y21=0,0,IF(General!$B$10 &gt; (Y21-General!$B$9), Y21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <f>IF(Z21=0,0,IF(General!$B$10 &gt; (Z21-General!$B$9), Z21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <f>IF(AA21=0,0,IF(General!$B$10 &gt; (AA21-General!$B$9), AA21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <f>IF(AB21=0,0,IF(General!$B$10 &gt; (AB21-General!$B$9), AB21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f>IF(AC21=0,0,IF(General!$B$10 &gt; (AC21-General!$B$9), AC21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <f>IF(AD21=0,0,IF(General!$B$10 &gt; (AD21-General!$B$9), AD21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <f>IF(AE21=0,0,IF(General!$B$10 &gt; (AE21-General!$B$9), AE21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <f>IF(AF21=0,0,IF(General!$B$10 &gt; (AF21-General!$B$9), AF21+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <f>LOOKUP(C21,14:14,15:15)</f>
+        <v>6067.2727272727207</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:AG22" si="13">LOOKUP(D21,14:14,15:15)</f>
+        <v>5885.2545454545325</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="13"/>
+        <v>5703.2363636363589</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="13"/>
+        <v>5521.2181818181707</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="13"/>
+        <v>5187.5181818182464</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="13"/>
+        <v>4777.9772727272939</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="13"/>
+        <v>4368.4363636363996</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="13"/>
+        <v>3958.8954545455053</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="13"/>
+        <v>3549.3545454546111</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="13"/>
+        <v>3139.8136363636586</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="13"/>
+        <v>2730.2727272727643</v>
+      </c>
+      <c r="N22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG22" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <f>LOOKUP(C21,14:14,16:16)</f>
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:AG23" si="14">LOOKUP(D21,14:14,16:16)</f>
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="N23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG23" t="e">
+        <f t="shared" si="14"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <f>LOOKUP(C21,14:14,17:17)</f>
+        <v>242.69090909090883</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:AG24" si="15">LOOKUP(D21,14:14,17:17)</f>
+        <v>235.41018181818131</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="15"/>
+        <v>228.12945454545437</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="15"/>
+        <v>220.84872727272682</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="15"/>
+        <v>207.50072727272985</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="15"/>
+        <v>191.11909090909177</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="15"/>
+        <v>174.73745454545599</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="15"/>
+        <v>158.35581818182021</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="15"/>
+        <v>141.97418181818443</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="15"/>
+        <v>125.59254545454634</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="15"/>
+        <v>109.21090909091058</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG24" t="e">
+        <f t="shared" si="15"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <f>LOOKUP(C21,14:14,18:18)</f>
+        <v>781.6311731151402</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:AG25" si="16">LOOKUP(D21,14:14,18:18)</f>
+        <v>758.18223792168521</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="16"/>
+        <v>734.73330272823193</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="16"/>
+        <v>711.28436753477695</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="16"/>
+        <v>668.29465301345385</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="16"/>
+        <v>615.53454882817641</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="16"/>
+        <v>562.77444464290625</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="16"/>
+        <v>510.01434045763608</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="16"/>
+        <v>457.25423627236597</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="16"/>
+        <v>404.49413208708836</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="16"/>
+        <v>351.73402790181819</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG25" t="e">
+        <f t="shared" si="16"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="3">
+        <v>25000</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="3">
+        <f>26100000*0.94</f>
+        <v>24534000</v>
+      </c>
+      <c r="C33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="3">
+        <v>681.97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37">
+        <f>B32/(B35/1000)</f>
+        <v>36658.50403976714</v>
+      </c>
+      <c r="C37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38">
+        <f>B33/B37</f>
+        <v>669.25807920000011</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39">
+        <f>B38*0.9</f>
+        <v>602.3322712800001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B40">
+        <f>0.5*B39</f>
+        <v>301.16613564000005</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>2020</v>
+      </c>
+      <c r="D43">
+        <v>2021</v>
+      </c>
+      <c r="E43">
+        <v>2022</v>
+      </c>
+      <c r="F43">
+        <v>2023</v>
+      </c>
+      <c r="G43">
+        <v>2024</v>
+      </c>
+      <c r="H43">
+        <v>2025</v>
+      </c>
+      <c r="I43">
+        <v>2026</v>
+      </c>
+      <c r="J43">
+        <v>2027</v>
+      </c>
+      <c r="K43">
+        <v>2028</v>
+      </c>
+      <c r="L43">
+        <v>2029</v>
+      </c>
+      <c r="M43">
+        <v>2030</v>
+      </c>
+      <c r="N43">
+        <v>2031</v>
+      </c>
+      <c r="O43">
+        <v>2032</v>
+      </c>
+      <c r="P43">
+        <v>2033</v>
+      </c>
+      <c r="Q43">
+        <v>2034</v>
+      </c>
+      <c r="R43">
+        <v>2035</v>
+      </c>
+      <c r="S43">
+        <v>2036</v>
+      </c>
+      <c r="T43">
+        <v>2037</v>
+      </c>
+      <c r="U43">
+        <v>2038</v>
+      </c>
+      <c r="V43">
+        <v>2039</v>
+      </c>
+      <c r="W43">
+        <v>2040</v>
+      </c>
+      <c r="X43">
+        <v>2041</v>
+      </c>
+      <c r="Y43">
+        <v>2042</v>
+      </c>
+      <c r="Z43">
+        <v>2043</v>
+      </c>
+      <c r="AA43">
+        <v>2044</v>
+      </c>
+      <c r="AB43">
+        <v>2045</v>
+      </c>
+      <c r="AC43">
+        <v>2046</v>
+      </c>
+      <c r="AD43">
+        <v>2047</v>
+      </c>
+      <c r="AE43">
+        <v>2048</v>
+      </c>
+      <c r="AF43">
+        <v>2049</v>
+      </c>
+      <c r="AG43">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3">
+        <f>_xlfn.FORECAST.LINEAR(C43,$B$38:$B$39,$E$38:$E$39)</f>
+        <v>669.25807919999897</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ref="D44:M44" si="17">_xlfn.FORECAST.LINEAR(D43,$B$38:$B$39,$E$38:$E$39)</f>
+        <v>662.56549840799926</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="17"/>
+        <v>655.87291761599954</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="17"/>
+        <v>649.18033682399982</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="17"/>
+        <v>642.48775603200011</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="17"/>
+        <v>635.79517524000039</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="17"/>
+        <v>629.10259444799885</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="17"/>
+        <v>622.41001365599914</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="17"/>
+        <v>615.71743286399942</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="17"/>
+        <v>609.0248520719997</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="17"/>
+        <v>602.33227127999999</v>
+      </c>
+      <c r="N44" s="3">
+        <f>_xlfn.FORECAST.LINEAR(N43,$B$39:$B$40,$E$39:$E$40)</f>
+        <v>587.2739644980029</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" ref="O44:AG44" si="18">_xlfn.FORECAST.LINEAR(O43,$B$39:$B$40,$E$39:$E$40)</f>
+        <v>572.21565771600217</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="18"/>
+        <v>557.15735093400144</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="18"/>
+        <v>542.09904415200072</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="18"/>
+        <v>527.04073736999999</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" si="18"/>
+        <v>511.9824305880029</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="18"/>
+        <v>496.92412380600217</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" si="18"/>
+        <v>481.86581702400144</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="18"/>
+        <v>466.80751024200072</v>
+      </c>
+      <c r="W44" s="3">
+        <f t="shared" si="18"/>
+        <v>451.74920345999999</v>
+      </c>
+      <c r="X44" s="3">
+        <f t="shared" si="18"/>
+        <v>436.6908966780029</v>
+      </c>
+      <c r="Y44" s="3">
+        <f t="shared" si="18"/>
+        <v>421.63258989600217</v>
+      </c>
+      <c r="Z44" s="3">
+        <f t="shared" si="18"/>
+        <v>406.57428311400145</v>
+      </c>
+      <c r="AA44" s="3">
+        <f t="shared" si="18"/>
+        <v>391.51597633200072</v>
+      </c>
+      <c r="AB44" s="3">
+        <f t="shared" si="18"/>
+        <v>376.45766954999999</v>
+      </c>
+      <c r="AC44" s="3">
+        <f t="shared" si="18"/>
+        <v>361.3993627680029</v>
+      </c>
+      <c r="AD44" s="3">
+        <f t="shared" si="18"/>
+        <v>346.34105598600217</v>
+      </c>
+      <c r="AE44" s="3">
+        <f t="shared" si="18"/>
+        <v>331.28274920400145</v>
+      </c>
+      <c r="AF44" s="3">
+        <f t="shared" si="18"/>
+        <v>316.22444242200072</v>
+      </c>
+      <c r="AG44" s="3">
+        <f t="shared" si="18"/>
+        <v>301.16613563999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="3">
+        <v>25</v>
+      </c>
+      <c r="D45" s="3">
+        <v>25</v>
+      </c>
+      <c r="E45" s="3">
+        <v>25</v>
+      </c>
+      <c r="F45" s="3">
+        <v>25</v>
+      </c>
+      <c r="G45" s="3">
+        <v>25</v>
+      </c>
+      <c r="H45" s="3">
+        <v>25</v>
+      </c>
+      <c r="I45" s="3">
+        <v>25</v>
+      </c>
+      <c r="J45" s="3">
+        <v>25</v>
+      </c>
+      <c r="K45" s="3">
+        <v>25</v>
+      </c>
+      <c r="L45" s="3">
+        <v>25</v>
+      </c>
+      <c r="M45" s="3">
+        <v>25</v>
+      </c>
+      <c r="N45" s="3">
+        <v>25</v>
+      </c>
+      <c r="O45" s="3">
+        <v>25</v>
+      </c>
+      <c r="P45" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>25</v>
+      </c>
+      <c r="R45" s="3">
+        <v>25</v>
+      </c>
+      <c r="S45" s="3">
+        <v>25</v>
+      </c>
+      <c r="T45" s="3">
+        <v>25</v>
+      </c>
+      <c r="U45" s="3">
+        <v>25</v>
+      </c>
+      <c r="V45" s="3">
+        <v>25</v>
+      </c>
+      <c r="W45" s="3">
+        <v>25</v>
+      </c>
+      <c r="X45" s="3">
+        <v>25</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>25</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>25</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>25</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>25</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>25</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="3">
+        <f>C44*$B$34</f>
+        <v>20.077742375999968</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" ref="D46:AG46" si="19">D44*$B$34</f>
+        <v>19.876964952239977</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="19"/>
+        <v>19.676187528479986</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="19"/>
+        <v>19.475410104719995</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="19"/>
+        <v>19.274632680960003</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="19"/>
+        <v>19.073855257200012</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="19"/>
+        <v>18.873077833439964</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="19"/>
+        <v>18.672300409679973</v>
+      </c>
+      <c r="K46" s="3">
+        <f t="shared" si="19"/>
+        <v>18.471522985919982</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="19"/>
+        <v>18.270745562159991</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="19"/>
+        <v>18.0699681384</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="19"/>
+        <v>17.618218934940085</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="19"/>
+        <v>17.166469731480063</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="19"/>
+        <v>16.714720528020042</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="19"/>
+        <v>16.26297132456002</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="19"/>
+        <v>15.811222121099998</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="19"/>
+        <v>15.359472917640087</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="19"/>
+        <v>14.907723714180065</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="19"/>
+        <v>14.455974510720043</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="19"/>
+        <v>14.004225307260022</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="19"/>
+        <v>13.552476103799998</v>
+      </c>
+      <c r="X46" s="3">
+        <f t="shared" si="19"/>
+        <v>13.100726900340087</v>
+      </c>
+      <c r="Y46" s="3">
+        <f t="shared" si="19"/>
+        <v>12.648977696880065</v>
+      </c>
+      <c r="Z46" s="3">
+        <f t="shared" si="19"/>
+        <v>12.197228493420043</v>
+      </c>
+      <c r="AA46" s="3">
+        <f t="shared" si="19"/>
+        <v>11.745479289960022</v>
+      </c>
+      <c r="AB46" s="3">
+        <f t="shared" si="19"/>
+        <v>11.2937300865</v>
+      </c>
+      <c r="AC46" s="3">
+        <f t="shared" si="19"/>
+        <v>10.841980883040087</v>
+      </c>
+      <c r="AD46" s="3">
+        <f t="shared" si="19"/>
+        <v>10.390231679580065</v>
+      </c>
+      <c r="AE46" s="3">
+        <f t="shared" si="19"/>
+        <v>9.9384824761200434</v>
+      </c>
+      <c r="AF46" s="3">
+        <f t="shared" si="19"/>
+        <v>9.4867332726600218</v>
+      </c>
+      <c r="AG46" s="3">
+        <f t="shared" si="19"/>
+        <v>9.0349840692000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47">
+        <f>((C44*General!$B$29*(1+General!$B$29)^C45)/((1+General!$B$29)^C45-1)+C46)</f>
+        <v>82.773022106121246</v>
+      </c>
+      <c r="D47">
+        <f>((D44*General!$B$29*(1+General!$B$29)^D45)/((1+General!$B$29)^D45-1)+D46)</f>
+        <v>81.945291885060072</v>
+      </c>
+      <c r="E47">
+        <f>((E44*General!$B$29*(1+General!$B$29)^E45)/((1+General!$B$29)^E45-1)+E46)</f>
+        <v>81.117561663998899</v>
+      </c>
+      <c r="F47">
+        <f>((F44*General!$B$29*(1+General!$B$29)^F45)/((1+General!$B$29)^F45-1)+F46)</f>
+        <v>80.289831442937711</v>
+      </c>
+      <c r="G47">
+        <f>((G44*General!$B$29*(1+General!$B$29)^G45)/((1+General!$B$29)^G45-1)+G46)</f>
+        <v>79.462101221876537</v>
+      </c>
+      <c r="H47">
+        <f>((H44*General!$B$29*(1+General!$B$29)^H45)/((1+General!$B$29)^H45-1)+H46)</f>
+        <v>78.634371000815364</v>
+      </c>
+      <c r="I47">
+        <f>((I44*General!$B$29*(1+General!$B$29)^I45)/((1+General!$B$29)^I45-1)+I46)</f>
+        <v>77.806640779753963</v>
+      </c>
+      <c r="J47">
+        <f>((J44*General!$B$29*(1+General!$B$29)^J45)/((1+General!$B$29)^J45-1)+J46)</f>
+        <v>76.978910558692775</v>
+      </c>
+      <c r="K47">
+        <f>((K44*General!$B$29*(1+General!$B$29)^K45)/((1+General!$B$29)^K45-1)+K46)</f>
+        <v>76.151180337631587</v>
+      </c>
+      <c r="L47">
+        <f>((L44*General!$B$29*(1+General!$B$29)^L45)/((1+General!$B$29)^L45-1)+L46)</f>
+        <v>75.323450116570413</v>
+      </c>
+      <c r="M47">
+        <f>((M44*General!$B$29*(1+General!$B$29)^M45)/((1+General!$B$29)^M45-1)+M46)</f>
+        <v>74.495719895509239</v>
+      </c>
+      <c r="N47">
+        <f>((N44*General!$B$29*(1+General!$B$29)^N45)/((1+General!$B$29)^N45-1)+N46)</f>
+        <v>72.633326898121865</v>
+      </c>
+      <c r="O47">
+        <f>((O44*General!$B$29*(1+General!$B$29)^O45)/((1+General!$B$29)^O45-1)+O46)</f>
+        <v>70.77093390073405</v>
+      </c>
+      <c r="P47">
+        <f>((P44*General!$B$29*(1+General!$B$29)^P45)/((1+General!$B$29)^P45-1)+P46)</f>
+        <v>68.908540903346221</v>
+      </c>
+      <c r="Q47">
+        <f>((Q44*General!$B$29*(1+General!$B$29)^Q45)/((1+General!$B$29)^Q45-1)+Q46)</f>
+        <v>67.046147905958406</v>
+      </c>
+      <c r="R47">
+        <f>((R44*General!$B$29*(1+General!$B$29)^R45)/((1+General!$B$29)^R45-1)+R46)</f>
+        <v>65.183754908570592</v>
+      </c>
+      <c r="S47">
+        <f>((S44*General!$B$29*(1+General!$B$29)^S45)/((1+General!$B$29)^S45-1)+S46)</f>
+        <v>63.321361911183203</v>
+      </c>
+      <c r="T47">
+        <f>((T44*General!$B$29*(1+General!$B$29)^T45)/((1+General!$B$29)^T45-1)+T46)</f>
+        <v>61.458968913795388</v>
+      </c>
+      <c r="U47">
+        <f>((U44*General!$B$29*(1+General!$B$29)^U45)/((1+General!$B$29)^U45-1)+U46)</f>
+        <v>59.596575916407573</v>
+      </c>
+      <c r="V47">
+        <f>((V44*General!$B$29*(1+General!$B$29)^V45)/((1+General!$B$29)^V45-1)+V46)</f>
+        <v>57.734182919019752</v>
+      </c>
+      <c r="W47">
+        <f>((W44*General!$B$29*(1+General!$B$29)^W45)/((1+General!$B$29)^W45-1)+W46)</f>
+        <v>55.87178992163193</v>
+      </c>
+      <c r="X47">
+        <f>((X44*General!$B$29*(1+General!$B$29)^X45)/((1+General!$B$29)^X45-1)+X46)</f>
+        <v>54.009396924244555</v>
+      </c>
+      <c r="Y47">
+        <f>((Y44*General!$B$29*(1+General!$B$29)^Y45)/((1+General!$B$29)^Y45-1)+Y46)</f>
+        <v>52.147003926856733</v>
+      </c>
+      <c r="Z47">
+        <f>((Z44*General!$B$29*(1+General!$B$29)^Z45)/((1+General!$B$29)^Z45-1)+Z46)</f>
+        <v>50.284610929468919</v>
+      </c>
+      <c r="AA47">
+        <f>((AA44*General!$B$29*(1+General!$B$29)^AA45)/((1+General!$B$29)^AA45-1)+AA46)</f>
+        <v>48.422217932081097</v>
+      </c>
+      <c r="AB47">
+        <f>((AB44*General!$B$29*(1+General!$B$29)^AB45)/((1+General!$B$29)^AB45-1)+AB46)</f>
+        <v>46.559824934693275</v>
+      </c>
+      <c r="AC47">
+        <f>((AC44*General!$B$29*(1+General!$B$29)^AC45)/((1+General!$B$29)^AC45-1)+AC46)</f>
+        <v>44.6974319373059</v>
+      </c>
+      <c r="AD47">
+        <f>((AD44*General!$B$29*(1+General!$B$29)^AD45)/((1+General!$B$29)^AD45-1)+AD46)</f>
+        <v>42.835038939918078</v>
+      </c>
+      <c r="AE47">
+        <f>((AE44*General!$B$29*(1+General!$B$29)^AE45)/((1+General!$B$29)^AE45-1)+AE46)</f>
+        <v>40.972645942530264</v>
+      </c>
+      <c r="AF47">
+        <f>((AF44*General!$B$29*(1+General!$B$29)^AF45)/((1+General!$B$29)^AF45-1)+AF46)</f>
+        <v>39.110252945142442</v>
+      </c>
+      <c r="AG47">
+        <f>((AG44*General!$B$29*(1+General!$B$29)^AG45)/((1+General!$B$29)^AG45-1)+AG46)</f>
+        <v>37.24785994775462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f>General!$B$9</f>
+        <v>2020</v>
+      </c>
+      <c r="D50">
+        <f>IF(C50=0,0,IF(General!$B$10 &gt; (C50-General!$B$9), C50+General!$B$11,0))</f>
+        <v>2023</v>
+      </c>
+      <c r="E50">
+        <f>IF(D50=0,0,IF(General!$B$10 &gt; (D50-General!$B$9), D50+General!$B$11,0))</f>
+        <v>2026</v>
+      </c>
+      <c r="F50">
+        <f>IF(E50=0,0,IF(General!$B$10 &gt; (E50-General!$B$9), E50+General!$B$11,0))</f>
+        <v>2029</v>
+      </c>
+      <c r="G50">
+        <f>IF(F50=0,0,IF(General!$B$10 &gt; (F50-General!$B$9), F50+General!$B$11,0))</f>
+        <v>2032</v>
+      </c>
+      <c r="H50">
+        <f>IF(G50=0,0,IF(General!$B$10 &gt; (G50-General!$B$9), G50+General!$B$11,0))</f>
+        <v>2035</v>
+      </c>
+      <c r="I50">
+        <f>IF(H50=0,0,IF(General!$B$10 &gt; (H50-General!$B$9), H50+General!$B$11,0))</f>
+        <v>2038</v>
+      </c>
+      <c r="J50">
+        <f>IF(I50=0,0,IF(General!$B$10 &gt; (I50-General!$B$9), I50+General!$B$11,0))</f>
+        <v>2041</v>
+      </c>
+      <c r="K50">
+        <f>IF(J50=0,0,IF(General!$B$10 &gt; (J50-General!$B$9), J50+General!$B$11,0))</f>
+        <v>2044</v>
+      </c>
+      <c r="L50">
+        <f>IF(K50=0,0,IF(General!$B$10 &gt; (K50-General!$B$9), K50+General!$B$11,0))</f>
+        <v>2047</v>
+      </c>
+      <c r="M50">
+        <f>IF(L50=0,0,IF(General!$B$10 &gt; (L50-General!$B$9), L50+General!$B$11,0))</f>
+        <v>2050</v>
+      </c>
+      <c r="N50">
+        <f>IF(M50=0,0,IF(General!$B$10 &gt; (M50-General!$B$9), M50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f>IF(N50=0,0,IF(General!$B$10 &gt; (N50-General!$B$9), N50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f>IF(O50=0,0,IF(General!$B$10 &gt; (O50-General!$B$9), O50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>IF(P50=0,0,IF(General!$B$10 &gt; (P50-General!$B$9), P50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f>IF(Q50=0,0,IF(General!$B$10 &gt; (Q50-General!$B$9), Q50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>IF(R50=0,0,IF(General!$B$10 &gt; (R50-General!$B$9), R50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f>IF(S50=0,0,IF(General!$B$10 &gt; (S50-General!$B$9), S50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <f>IF(T50=0,0,IF(General!$B$10 &gt; (T50-General!$B$9), T50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <f>IF(U50=0,0,IF(General!$B$10 &gt; (U50-General!$B$9), U50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f>IF(V50=0,0,IF(General!$B$10 &gt; (V50-General!$B$9), V50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <f>IF(W50=0,0,IF(General!$B$10 &gt; (W50-General!$B$9), W50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f>IF(X50=0,0,IF(General!$B$10 &gt; (X50-General!$B$9), X50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f>IF(Y50=0,0,IF(General!$B$10 &gt; (Y50-General!$B$9), Y50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <f>IF(Z50=0,0,IF(General!$B$10 &gt; (Z50-General!$B$9), Z50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <f>IF(AA50=0,0,IF(General!$B$10 &gt; (AA50-General!$B$9), AA50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f>IF(AB50=0,0,IF(General!$B$10 &gt; (AB50-General!$B$9), AB50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <f>IF(AC50=0,0,IF(General!$B$10 &gt; (AC50-General!$B$9), AC50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <f>IF(AD50=0,0,IF(General!$B$10 &gt; (AD50-General!$B$9), AD50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <f>IF(AE50=0,0,IF(General!$B$10 &gt; (AE50-General!$B$9), AE50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <f>IF(AF50=0,0,IF(General!$B$10 &gt; (AF50-General!$B$9), AF50+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51">
+        <f>LOOKUP(C50,43:43,44:44)</f>
+        <v>669.25807919999897</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:AG51" si="20">LOOKUP(D50,43:43,44:44)</f>
+        <v>649.18033682399982</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="20"/>
+        <v>629.10259444799885</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="20"/>
+        <v>609.0248520719997</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="20"/>
+        <v>572.21565771600217</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="20"/>
+        <v>527.04073736999999</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="20"/>
+        <v>481.86581702400144</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="20"/>
+        <v>436.6908966780029</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="20"/>
+        <v>391.51597633200072</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="20"/>
+        <v>346.34105598600217</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="20"/>
+        <v>301.16613563999999</v>
+      </c>
+      <c r="N51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG51" t="e">
+        <f t="shared" si="20"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <f>LOOKUP(C50,43:43,45:45)</f>
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:AG52" si="21">LOOKUP(D50,43:43,45:45)</f>
+        <v>25</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="21"/>
+        <v>25</v>
+      </c>
+      <c r="N52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG52" t="e">
+        <f t="shared" si="21"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <f>LOOKUP(C50,43:43,46:46)</f>
+        <v>20.077742375999968</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:AG53" si="22">LOOKUP(D50,43:43,46:46)</f>
+        <v>19.475410104719995</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="22"/>
+        <v>18.873077833439964</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="22"/>
+        <v>18.270745562159991</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="22"/>
+        <v>17.166469731480063</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="22"/>
+        <v>15.811222121099998</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="22"/>
+        <v>14.455974510720043</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="22"/>
+        <v>13.100726900340087</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="22"/>
+        <v>11.745479289960022</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="22"/>
+        <v>10.390231679580065</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="22"/>
+        <v>9.0349840692000001</v>
+      </c>
+      <c r="N53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG53" t="e">
+        <f t="shared" si="22"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54">
+        <f>LOOKUP(C50,43:43,47:47)</f>
+        <v>82.773022106121246</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:AG54" si="23">LOOKUP(D50,43:43,47:47)</f>
+        <v>80.289831442937711</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="23"/>
+        <v>77.806640779753963</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="23"/>
+        <v>75.323450116570413</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="23"/>
+        <v>70.77093390073405</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="23"/>
+        <v>65.183754908570592</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="23"/>
+        <v>59.596575916407573</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="23"/>
+        <v>54.009396924244555</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="23"/>
+        <v>48.422217932081097</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="23"/>
+        <v>42.835038939918078</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="23"/>
+        <v>37.24785994775462</v>
+      </c>
+      <c r="N54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG54" t="e">
+        <f t="shared" si="23"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B64" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66">
+        <f>B61/(B64/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="e">
+        <f>B62/B66</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" t="e">
+        <f>B67*0.9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" t="e">
+        <f>B68*0.5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>2020</v>
+      </c>
+      <c r="D72">
+        <v>2021</v>
+      </c>
+      <c r="E72">
+        <v>2022</v>
+      </c>
+      <c r="F72">
+        <v>2023</v>
+      </c>
+      <c r="G72">
+        <v>2024</v>
+      </c>
+      <c r="H72">
+        <v>2025</v>
+      </c>
+      <c r="I72">
+        <v>2026</v>
+      </c>
+      <c r="J72">
+        <v>2027</v>
+      </c>
+      <c r="K72">
+        <v>2028</v>
+      </c>
+      <c r="L72">
+        <v>2029</v>
+      </c>
+      <c r="M72">
+        <v>2030</v>
+      </c>
+      <c r="N72">
+        <v>2031</v>
+      </c>
+      <c r="O72">
+        <v>2032</v>
+      </c>
+      <c r="P72">
+        <v>2033</v>
+      </c>
+      <c r="Q72">
+        <v>2034</v>
+      </c>
+      <c r="R72">
+        <v>2035</v>
+      </c>
+      <c r="S72">
+        <v>2036</v>
+      </c>
+      <c r="T72">
+        <v>2037</v>
+      </c>
+      <c r="U72">
+        <v>2038</v>
+      </c>
+      <c r="V72">
+        <v>2039</v>
+      </c>
+      <c r="W72">
+        <v>2040</v>
+      </c>
+      <c r="X72">
+        <v>2041</v>
+      </c>
+      <c r="Y72">
+        <v>2042</v>
+      </c>
+      <c r="Z72">
+        <v>2043</v>
+      </c>
+      <c r="AA72">
+        <v>2044</v>
+      </c>
+      <c r="AB72">
+        <v>2045</v>
+      </c>
+      <c r="AC72">
+        <v>2046</v>
+      </c>
+      <c r="AD72">
+        <v>2047</v>
+      </c>
+      <c r="AE72">
+        <v>2048</v>
+      </c>
+      <c r="AF72">
+        <v>2049</v>
+      </c>
+      <c r="AG72">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="3"/>
+      <c r="AC73" s="3"/>
+      <c r="AD73" s="3"/>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3"/>
+      <c r="AG73" s="3"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+      <c r="AC74" s="3"/>
+      <c r="AD74" s="3"/>
+      <c r="AE74" s="3"/>
+      <c r="AF74" s="3"/>
+      <c r="AG74" s="3"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AE75" s="3"/>
+      <c r="AF75" s="3"/>
+      <c r="AG75" s="3"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <f>General!$B$9</f>
+        <v>2020</v>
+      </c>
+      <c r="D79">
+        <f>IF(C79=0,0,IF(General!$B$10 &gt; (C79-General!$B$9), C79+General!$B$11,0))</f>
+        <v>2023</v>
+      </c>
+      <c r="E79">
+        <f>IF(D79=0,0,IF(General!$B$10 &gt; (D79-General!$B$9), D79+General!$B$11,0))</f>
+        <v>2026</v>
+      </c>
+      <c r="F79">
+        <f>IF(E79=0,0,IF(General!$B$10 &gt; (E79-General!$B$9), E79+General!$B$11,0))</f>
+        <v>2029</v>
+      </c>
+      <c r="G79">
+        <f>IF(F79=0,0,IF(General!$B$10 &gt; (F79-General!$B$9), F79+General!$B$11,0))</f>
+        <v>2032</v>
+      </c>
+      <c r="H79">
+        <f>IF(G79=0,0,IF(General!$B$10 &gt; (G79-General!$B$9), G79+General!$B$11,0))</f>
+        <v>2035</v>
+      </c>
+      <c r="I79">
+        <f>IF(H79=0,0,IF(General!$B$10 &gt; (H79-General!$B$9), H79+General!$B$11,0))</f>
+        <v>2038</v>
+      </c>
+      <c r="J79">
+        <f>IF(I79=0,0,IF(General!$B$10 &gt; (I79-General!$B$9), I79+General!$B$11,0))</f>
+        <v>2041</v>
+      </c>
+      <c r="K79">
+        <f>IF(J79=0,0,IF(General!$B$10 &gt; (J79-General!$B$9), J79+General!$B$11,0))</f>
+        <v>2044</v>
+      </c>
+      <c r="L79">
+        <f>IF(K79=0,0,IF(General!$B$10 &gt; (K79-General!$B$9), K79+General!$B$11,0))</f>
+        <v>2047</v>
+      </c>
+      <c r="M79">
+        <f>IF(L79=0,0,IF(General!$B$10 &gt; (L79-General!$B$9), L79+General!$B$11,0))</f>
+        <v>2050</v>
+      </c>
+      <c r="N79">
+        <f>IF(M79=0,0,IF(General!$B$10 &gt; (M79-General!$B$9), M79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f>IF(N79=0,0,IF(General!$B$10 &gt; (N79-General!$B$9), N79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f>IF(O79=0,0,IF(General!$B$10 &gt; (O79-General!$B$9), O79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f>IF(P79=0,0,IF(General!$B$10 &gt; (P79-General!$B$9), P79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f>IF(Q79=0,0,IF(General!$B$10 &gt; (Q79-General!$B$9), Q79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f>IF(R79=0,0,IF(General!$B$10 &gt; (R79-General!$B$9), R79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f>IF(S79=0,0,IF(General!$B$10 &gt; (S79-General!$B$9), S79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f>IF(T79=0,0,IF(General!$B$10 &gt; (T79-General!$B$9), T79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f>IF(U79=0,0,IF(General!$B$10 &gt; (U79-General!$B$9), U79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f>IF(V79=0,0,IF(General!$B$10 &gt; (V79-General!$B$9), V79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f>IF(W79=0,0,IF(General!$B$10 &gt; (W79-General!$B$9), W79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <f>IF(X79=0,0,IF(General!$B$10 &gt; (X79-General!$B$9), X79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f>IF(Y79=0,0,IF(General!$B$10 &gt; (Y79-General!$B$9), Y79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <f>IF(Z79=0,0,IF(General!$B$10 &gt; (Z79-General!$B$9), Z79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <f>IF(AA79=0,0,IF(General!$B$10 &gt; (AA79-General!$B$9), AA79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <f>IF(AB79=0,0,IF(General!$B$10 &gt; (AB79-General!$B$9), AB79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <f>IF(AC79=0,0,IF(General!$B$10 &gt; (AC79-General!$B$9), AC79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <f>IF(AD79=0,0,IF(General!$B$10 &gt; (AD79-General!$B$9), AD79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <f>IF(AE79=0,0,IF(General!$B$10 &gt; (AE79-General!$B$9), AE79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <f>IF(AF79=0,0,IF(General!$B$10 &gt; (AF79-General!$B$9), AF79+General!$B$11,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <f>LOOKUP(C79,72:72,73:73)</f>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:AG80" si="24">LOOKUP(D79,72:72,73:73)</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG80" t="e">
+        <f t="shared" si="24"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <f>LOOKUP(C79,72:72,74:74)</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:AG81" si="25">LOOKUP(D79,72:72,74:74)</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG81" t="e">
+        <f t="shared" si="25"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <f>LOOKUP(C79,72:72,75:75)</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:AG82" si="26">LOOKUP(D79,72:72,75:75)</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG82" t="e">
+        <f t="shared" si="26"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83">
+        <f>LOOKUP(C79,72:72,76:76)</f>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:AG83" si="27">LOOKUP(D79,72:72,76:76)</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="O83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="R83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="S83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="T83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AG83" t="e">
+        <f t="shared" si="27"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F55467E21B67B45A103D81F13D91C27" ma:contentTypeVersion="2" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7ac8f59c42c05cf5cbd548b0362af564">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e0764678-775e-4b3a-9581-a9313f21c0ba" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1db46833b09b12d07fc9b351fd6923d" ns3:_="">
     <xsd:import namespace="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
@@ -51825,22 +51798,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E322B84F-BC2B-4CCC-AC01-009FF4B401AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75DC9A7-280D-43AE-914F-3C97FF60230F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{577653DF-BA89-4200-B906-63F73BB80659}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51856,28 +51838,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F75DC9A7-280D-43AE-914F-3C97FF60230F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E322B84F-BC2B-4CCC-AC01-009FF4B401AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e0764678-775e-4b3a-9581-a9313f21c0ba"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Inputdata econ.xlsx
+++ b/Inputdata econ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spide\Documents\TU Delft\Thesis Project\MSc Thesis - Piotr K\PiotrThesis\PiotrThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588B606-CFFD-4E0E-B557-D4BADF85E4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C2CB1-3F52-400A-ABE5-F237BC154E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="659" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="659" activeTab="1" xr2:uid="{9C7C22B3-D91B-454D-BF2F-761ADD2EFC13}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -1688,7 +1688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1704,6 +1704,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2463,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DF1995-AAE9-47B2-9107-0FDDA5B0CC19}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -7185,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D248BE2C-4A37-440D-BBBC-E1B089756B68}">
   <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7297,7 +7298,7 @@
       <c r="Y5">
         <v>2020</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="13">
         <f>1666000*B7</f>
         <v>19992000</v>
       </c>
@@ -7322,22 +7323,22 @@
       </c>
       <c r="V6">
         <f>V5*B9</f>
-        <v>4055610.2399999993</v>
+        <v>16030079.999999996</v>
       </c>
       <c r="W6">
         <f>W5*B9</f>
-        <v>86222.399999999994</v>
+        <v>340800</v>
       </c>
       <c r="Y6">
         <v>2035</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="13">
         <f>Z5*B9</f>
-        <v>1759296</v>
+        <v>6953739.1304347822</v>
       </c>
       <c r="AA6">
         <f>AA5*B9</f>
-        <v>142560</v>
+        <v>563478.26086956519</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -7366,22 +7367,22 @@
       </c>
       <c r="V7">
         <f>V6*B11</f>
-        <v>2027805.1199999996</v>
+        <v>8015039.9999999981</v>
       </c>
       <c r="W7">
         <f>W6*B11</f>
-        <v>43111.199999999997</v>
+        <v>170400</v>
       </c>
       <c r="Y7">
         <v>2050</v>
       </c>
       <c r="Z7">
         <f>Z6*B11</f>
-        <v>879648</v>
+        <v>3476869.5652173911</v>
       </c>
       <c r="AA7">
         <f>AA6*B11</f>
-        <v>71280</v>
+        <v>281739.13043478259</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -7401,7 +7402,8 @@
         <v>236</v>
       </c>
       <c r="B9" s="3">
-        <v>8.7999999999999995E-2</v>
+        <f>40/115</f>
+        <v>0.34782608695652173</v>
       </c>
       <c r="O9" t="s">
         <v>180</v>
@@ -7564,23 +7566,23 @@
       </c>
       <c r="C17" s="3">
         <f>_xlfn.FORECAST.LINEAR(C16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>67101914.880000114</v>
+        <v>61114680</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17:G17" si="1">_xlfn.FORECAST.LINEAR(D16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>62898827.904000282</v>
+        <v>58109040</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>58695740.92800045</v>
+        <v>55103400</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="1"/>
-        <v>54492653.951999664</v>
+        <v>52097760</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="1"/>
-        <v>50289566.975999832</v>
+        <v>49092120</v>
       </c>
       <c r="H17" s="3">
         <f>_xlfn.FORECAST.LINEAR(H16,$V$5:$V$6,$U$5:$U$6)</f>
@@ -7588,103 +7590,103 @@
       </c>
       <c r="I17" s="3">
         <f>_xlfn.FORECAST.LINEAR(I16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>41883393.024000168</v>
+        <v>43080840</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ref="J17:R17" si="2">_xlfn.FORECAST.LINEAR(J16,$V$5:$V$6,$U$5:$U$6)</f>
-        <v>37680306.048000336</v>
+        <v>40075200</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>33477219.07199955</v>
+        <v>37069560</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
-        <v>29274132.095999718</v>
+        <v>34063920</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="2"/>
-        <v>25071045.119999886</v>
+        <v>31058280</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="2"/>
-        <v>20867958.144000053</v>
+        <v>28052640</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" si="2"/>
-        <v>16664871.168000221</v>
+        <v>25047000</v>
       </c>
       <c r="P17" s="3">
         <f t="shared" si="2"/>
-        <v>12461784.192000389</v>
+        <v>22041360</v>
       </c>
       <c r="Q17" s="3">
         <f t="shared" si="2"/>
-        <v>8258697.2159996033</v>
+        <v>19035720</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" si="2"/>
-        <v>4055610.2399997711</v>
+        <v>16030080</v>
       </c>
       <c r="S17" s="3">
         <f>_xlfn.FORECAST.LINEAR(S16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>3920423.2319999933</v>
+        <v>15495744</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ref="T17:AG17" si="3">_xlfn.FORECAST.LINEAR(T16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>3785236.2239999771</v>
+        <v>14961408</v>
       </c>
       <c r="U17" s="3">
         <f t="shared" si="3"/>
-        <v>3650049.2159999609</v>
+        <v>14427072</v>
       </c>
       <c r="V17" s="3">
         <f>_xlfn.FORECAST.LINEAR(V16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>3514862.2080000043</v>
+        <v>13892736</v>
       </c>
       <c r="W17" s="3">
         <f>_xlfn.FORECAST.LINEAR(W16,$V$6:$V$7,$U$6:$U$7)</f>
-        <v>3379675.1999999881</v>
+        <v>13358400</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" si="3"/>
-        <v>3244488.1919999719</v>
+        <v>12824064</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" si="3"/>
-        <v>3109301.1839999557</v>
+        <v>12289728</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" si="3"/>
-        <v>2974114.175999999</v>
+        <v>11755392</v>
       </c>
       <c r="AA17" s="3">
         <f t="shared" si="3"/>
-        <v>2838927.1679999828</v>
+        <v>11221056</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" si="3"/>
-        <v>2703740.1599999666</v>
+        <v>10686720</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" si="3"/>
-        <v>2568553.1519999504</v>
+        <v>10152384</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" si="3"/>
-        <v>2433366.1439999938</v>
+        <v>9618048</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" si="3"/>
-        <v>2298179.1359999776</v>
+        <v>9083712</v>
       </c>
       <c r="AF17" s="3">
         <f t="shared" si="3"/>
-        <v>2162992.1279999614</v>
+        <v>8549376</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" si="3"/>
-        <v>2027805.1200000048</v>
+        <v>8015040</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -7791,127 +7793,127 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ref="C19:G19" si="4">_xlfn.FORECAST.LINEAR(C16,$W$5:$W$6,$U$5:$U$6)</f>
-        <v>1426588.7999999821</v>
+        <v>1299300</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="4"/>
-        <v>1337231.0399999917</v>
+        <v>1235400</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="4"/>
-        <v>1247873.2799999714</v>
+        <v>1171500</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="4"/>
-        <v>1158515.5199999809</v>
+        <v>1107600</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="4"/>
-        <v>1069157.7599999905</v>
+        <v>1043700</v>
       </c>
       <c r="H19" s="3">
         <f>_xlfn.FORECAST.LINEAR(H16,$W$5:$W$6,$U$5:$U$6)</f>
-        <v>979799.9999999702</v>
+        <v>979800</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" ref="I19:R19" si="5">_xlfn.FORECAST.LINEAR(I16,$W$5:$W$6,$U$5:$U$6)</f>
-        <v>890442.23999997973</v>
+        <v>915900</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="5"/>
-        <v>801084.47999998927</v>
+        <v>852000</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="5"/>
-        <v>711726.71999996901</v>
+        <v>788100</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="5"/>
-        <v>622368.95999997854</v>
+        <v>724200</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="5"/>
-        <v>533011.19999998808</v>
+        <v>660300</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="5"/>
-        <v>443653.43999996781</v>
+        <v>596400</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" si="5"/>
-        <v>354295.67999997735</v>
+        <v>532500</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" si="5"/>
-        <v>264937.91999998689</v>
+        <v>468600</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" si="5"/>
-        <v>175580.15999996662</v>
+        <v>404700</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="5"/>
-        <v>86222.399999976158</v>
+        <v>340800</v>
       </c>
       <c r="S19" s="3">
         <f>_xlfn.FORECAST.LINEAR(S16,$W$6:$W$7,$U$6:$U$7)</f>
-        <v>83348.319999999367</v>
+        <v>329440</v>
       </c>
       <c r="T19" s="3">
         <f t="shared" ref="T19:AG19" si="6">_xlfn.FORECAST.LINEAR(T16,$W$6:$W$7,$U$6:$U$7)</f>
-        <v>80474.239999999292</v>
+        <v>318080</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" si="6"/>
-        <v>77600.159999999218</v>
+        <v>306720</v>
       </c>
       <c r="V19" s="3">
         <f t="shared" si="6"/>
-        <v>74726.079999999143</v>
+        <v>295360</v>
       </c>
       <c r="W19" s="3">
         <f t="shared" si="6"/>
-        <v>71851.999999999069</v>
+        <v>284000</v>
       </c>
       <c r="X19" s="3">
         <f t="shared" si="6"/>
-        <v>68977.919999998994</v>
+        <v>272640</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" si="6"/>
-        <v>66103.839999999851</v>
+        <v>261280</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" si="6"/>
-        <v>63229.759999999776</v>
+        <v>249920</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" si="6"/>
-        <v>60355.679999999702</v>
+        <v>238560</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" si="6"/>
-        <v>57481.599999999627</v>
+        <v>227200</v>
       </c>
       <c r="AC19" s="3">
         <f t="shared" si="6"/>
-        <v>54607.519999999553</v>
+        <v>215840</v>
       </c>
       <c r="AD19" s="3">
         <f t="shared" si="6"/>
-        <v>51733.439999999478</v>
+        <v>204480</v>
       </c>
       <c r="AE19" s="3">
         <f t="shared" si="6"/>
-        <v>48859.359999999404</v>
+        <v>193120</v>
       </c>
       <c r="AF19" s="3">
         <f t="shared" si="6"/>
-        <v>45985.279999999329</v>
+        <v>181760</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="6"/>
-        <v>43111.199999999255</v>
+        <v>170400</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -7920,127 +7922,127 @@
       </c>
       <c r="C20">
         <f>((C17*General!$B$29*(1+General!$B$29)^C18)/((1+General!$B$29)^C18-1)+C19)</f>
-        <v>7712614.2580074836</v>
+        <v>7024448.6045517353</v>
       </c>
       <c r="D20">
         <f>((D17*General!$B$29*(1+General!$B$29)^D18)/((1+General!$B$29)^D18-1)+D19)</f>
-        <v>7229516.4418466007</v>
+        <v>6678983.9190819776</v>
       </c>
       <c r="E20">
         <f>((E17*General!$B$29*(1+General!$B$29)^E18)/((1+General!$B$29)^E18-1)+E19)</f>
-        <v>6746418.6256856881</v>
+        <v>6333519.2336122198</v>
       </c>
       <c r="F20">
         <f>((F17*General!$B$29*(1+General!$B$29)^F18)/((1+General!$B$29)^F18-1)+F19)</f>
-        <v>6263320.809524714</v>
+        <v>5988054.548142462</v>
       </c>
       <c r="G20">
         <f>((G17*General!$B$29*(1+General!$B$29)^G18)/((1+General!$B$29)^G18-1)+G19)</f>
-        <v>5780222.9933638312</v>
+        <v>5642589.8626727052</v>
       </c>
       <c r="H20">
         <f>((H17*General!$B$29*(1+General!$B$29)^H18)/((1+General!$B$29)^H18-1)+H19)</f>
-        <v>5297125.1772029176</v>
+        <v>5297125.1772029474</v>
       </c>
       <c r="I20">
         <f>((I17*General!$B$29*(1+General!$B$29)^I18)/((1+General!$B$29)^I18-1)+I19)</f>
-        <v>4814027.3610420339</v>
+        <v>4951660.4917331897</v>
       </c>
       <c r="J20">
         <f>((J17*General!$B$29*(1+General!$B$29)^J18)/((1+General!$B$29)^J18-1)+J19)</f>
-        <v>4330929.5448811501</v>
+        <v>4606195.8062634328</v>
       </c>
       <c r="K20">
         <f>((K17*General!$B$29*(1+General!$B$29)^K18)/((1+General!$B$29)^K18-1)+K19)</f>
-        <v>3847831.7287201486</v>
+        <v>4260731.120793676</v>
       </c>
       <c r="L20">
         <f>((L17*General!$B$29*(1+General!$B$29)^L18)/((1+General!$B$29)^L18-1)+L19)</f>
-        <v>3364733.9125592643</v>
+        <v>3915266.4353239182</v>
       </c>
       <c r="M20">
         <f>((M17*General!$B$29*(1+General!$B$29)^M18)/((1+General!$B$29)^M18-1)+M19)</f>
-        <v>2881636.0963983806</v>
+        <v>3569801.74985416</v>
       </c>
       <c r="N20">
         <f>((N17*General!$B$29*(1+General!$B$29)^N18)/((1+General!$B$29)^N18-1)+N19)</f>
-        <v>2398538.2802374675</v>
+        <v>3224337.0643844032</v>
       </c>
       <c r="O20">
         <f>((O17*General!$B$29*(1+General!$B$29)^O18)/((1+General!$B$29)^O18-1)+O19)</f>
-        <v>1915440.464076584</v>
+        <v>2878872.3789146454</v>
       </c>
       <c r="P20">
         <f>((P17*General!$B$29*(1+General!$B$29)^P18)/((1+General!$B$29)^P18-1)+P19)</f>
-        <v>1432342.6479157005</v>
+        <v>2533407.6934448881</v>
       </c>
       <c r="Q20">
         <f>((Q17*General!$B$29*(1+General!$B$29)^Q18)/((1+General!$B$29)^Q18-1)+Q19)</f>
-        <v>949244.83175469772</v>
+        <v>2187943.0079751303</v>
       </c>
       <c r="R20">
         <f>((R17*General!$B$29*(1+General!$B$29)^R18)/((1+General!$B$29)^R18-1)+R19)</f>
-        <v>466147.01559381408</v>
+        <v>1842478.3225053733</v>
       </c>
       <c r="S20">
         <f>((S17*General!$B$29*(1+General!$B$29)^S18)/((1+General!$B$29)^S18-1)+S19)</f>
-        <v>450608.78174072946</v>
+        <v>1781062.3784218607</v>
       </c>
       <c r="T20">
         <f>((T17*General!$B$29*(1+General!$B$29)^T18)/((1+General!$B$29)^T18-1)+T19)</f>
-        <v>435070.54788759921</v>
+        <v>1719646.4343383482</v>
       </c>
       <c r="U20">
         <f>((U17*General!$B$29*(1+General!$B$29)^U18)/((1+General!$B$29)^U18-1)+U19)</f>
-        <v>419532.31403446896</v>
+        <v>1658230.4902548357</v>
       </c>
       <c r="V20">
         <f>((V17*General!$B$29*(1+General!$B$29)^V18)/((1+General!$B$29)^V18-1)+V19)</f>
-        <v>403994.08018134435</v>
+        <v>1596814.5461713234</v>
       </c>
       <c r="W20">
         <f>((W17*General!$B$29*(1+General!$B$29)^W18)/((1+General!$B$29)^W18-1)+W19)</f>
-        <v>388455.84632821416</v>
+        <v>1535398.6020878109</v>
       </c>
       <c r="X20">
         <f>((X17*General!$B$29*(1+General!$B$29)^X18)/((1+General!$B$29)^X18-1)+X19)</f>
-        <v>372917.61247508385</v>
+        <v>1473982.6580042983</v>
       </c>
       <c r="Y20">
         <f>((Y17*General!$B$29*(1+General!$B$29)^Y18)/((1+General!$B$29)^Y18-1)+Y19)</f>
-        <v>357379.37862195453</v>
+        <v>1412566.713920786</v>
       </c>
       <c r="Z20">
         <f>((Z17*General!$B$29*(1+General!$B$29)^Z18)/((1+General!$B$29)^Z18-1)+Z19)</f>
-        <v>341841.14476882992</v>
+        <v>1351150.7698372735</v>
       </c>
       <c r="AA20">
         <f>((AA17*General!$B$29*(1+General!$B$29)^AA18)/((1+General!$B$29)^AA18-1)+AA19)</f>
-        <v>326302.91091569967</v>
+        <v>1289734.8257537612</v>
       </c>
       <c r="AB20">
         <f>((AB17*General!$B$29*(1+General!$B$29)^AB18)/((1+General!$B$29)^AB18-1)+AB19)</f>
-        <v>310764.67706256942</v>
+        <v>1228318.8816702487</v>
       </c>
       <c r="AC20">
         <f>((AC17*General!$B$29*(1+General!$B$29)^AC18)/((1+General!$B$29)^AC18-1)+AC19)</f>
-        <v>295226.44320943917</v>
+        <v>1166902.9375867364</v>
       </c>
       <c r="AD20">
         <f>((AD17*General!$B$29*(1+General!$B$29)^AD18)/((1+General!$B$29)^AD18-1)+AD19)</f>
-        <v>279688.2093563145</v>
+        <v>1105486.9935032236</v>
       </c>
       <c r="AE20">
         <f>((AE17*General!$B$29*(1+General!$B$29)^AE18)/((1+General!$B$29)^AE18-1)+AE19)</f>
-        <v>264149.97550318425</v>
+        <v>1044071.0494197113</v>
       </c>
       <c r="AF20">
         <f>((AF17*General!$B$29*(1+General!$B$29)^AF18)/((1+General!$B$29)^AF18-1)+AF19)</f>
-        <v>248611.74165005403</v>
+        <v>982655.10533619893</v>
       </c>
       <c r="AG20">
         <f>((AG17*General!$B$29*(1+General!$B$29)^AG18)/((1+General!$B$29)^AG18-1)+AG19)</f>
-        <v>233073.50779692942</v>
+        <v>921239.16125268664</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -9153,47 +9155,47 @@
       </c>
       <c r="C45">
         <f>LOOKUP(C44,16:16,17:17)</f>
-        <v>67101914.880000114</v>
+        <v>61114680</v>
       </c>
       <c r="D45">
         <f t="shared" ref="D45:AG45" si="11">LOOKUP(D44,16:16,17:17)</f>
-        <v>54492653.951999664</v>
+        <v>52097760</v>
       </c>
       <c r="E45">
         <f t="shared" si="11"/>
-        <v>41883393.024000168</v>
+        <v>43080840</v>
       </c>
       <c r="F45">
         <f t="shared" si="11"/>
-        <v>29274132.095999718</v>
+        <v>34063920</v>
       </c>
       <c r="G45">
         <f t="shared" si="11"/>
-        <v>16664871.168000221</v>
+        <v>25047000</v>
       </c>
       <c r="H45">
         <f t="shared" si="11"/>
-        <v>4055610.2399997711</v>
+        <v>16030080</v>
       </c>
       <c r="I45">
         <f t="shared" si="11"/>
-        <v>3650049.2159999609</v>
+        <v>14427072</v>
       </c>
       <c r="J45">
         <f t="shared" si="11"/>
-        <v>3244488.1919999719</v>
+        <v>12824064</v>
       </c>
       <c r="K45">
         <f t="shared" si="11"/>
-        <v>2838927.1679999828</v>
+        <v>11221056</v>
       </c>
       <c r="L45">
         <f t="shared" si="11"/>
-        <v>2433366.1439999938</v>
+        <v>9618048</v>
       </c>
       <c r="M45">
         <f t="shared" si="11"/>
-        <v>2027805.1200000048</v>
+        <v>8015040</v>
       </c>
       <c r="N45" t="e">
         <f t="shared" si="11"/>
@@ -9411,47 +9413,47 @@
       </c>
       <c r="C47">
         <f>LOOKUP(C44,16:16,19:19)</f>
-        <v>1426588.7999999821</v>
+        <v>1299300</v>
       </c>
       <c r="D47">
         <f t="shared" ref="D47:AG47" si="13">LOOKUP(D44,16:16,19:19)</f>
-        <v>1158515.5199999809</v>
+        <v>1107600</v>
       </c>
       <c r="E47">
         <f t="shared" si="13"/>
-        <v>890442.23999997973</v>
+        <v>915900</v>
       </c>
       <c r="F47">
         <f t="shared" si="13"/>
-        <v>622368.95999997854</v>
+        <v>724200</v>
       </c>
       <c r="G47">
         <f t="shared" si="13"/>
-        <v>354295.67999997735</v>
+        <v>532500</v>
       </c>
       <c r="H47">
         <f t="shared" si="13"/>
-        <v>86222.399999976158</v>
+        <v>340800</v>
       </c>
       <c r="I47">
         <f t="shared" si="13"/>
-        <v>77600.159999999218</v>
+        <v>306720</v>
       </c>
       <c r="J47">
         <f t="shared" si="13"/>
-        <v>68977.919999998994</v>
+        <v>272640</v>
       </c>
       <c r="K47">
         <f t="shared" si="13"/>
-        <v>60355.679999999702</v>
+        <v>238560</v>
       </c>
       <c r="L47">
         <f t="shared" si="13"/>
-        <v>51733.439999999478</v>
+        <v>204480</v>
       </c>
       <c r="M47">
         <f t="shared" si="13"/>
-        <v>43111.199999999255</v>
+        <v>170400</v>
       </c>
       <c r="N47" t="e">
         <f t="shared" si="13"/>
@@ -9540,47 +9542,47 @@
       </c>
       <c r="C48">
         <f>LOOKUP(C44,16:16,20:20)</f>
-        <v>7712614.2580074836</v>
+        <v>7024448.6045517353</v>
       </c>
       <c r="D48">
         <f t="shared" ref="D48:AG48" si="14">LOOKUP(D44,16:16,20:20)</f>
-        <v>6263320.809524714</v>
+        <v>5988054.548142462</v>
       </c>
       <c r="E48">
         <f t="shared" si="14"/>
-        <v>4814027.3610420339</v>
+        <v>4951660.4917331897</v>
       </c>
       <c r="F48">
         <f t="shared" si="14"/>
-        <v>3364733.9125592643</v>
+        <v>3915266.4353239182</v>
       </c>
       <c r="G48">
         <f t="shared" si="14"/>
-        <v>1915440.464076584</v>
+        <v>2878872.3789146454</v>
       </c>
       <c r="H48">
         <f t="shared" si="14"/>
-        <v>466147.01559381408</v>
+        <v>1842478.3225053733</v>
       </c>
       <c r="I48">
         <f t="shared" si="14"/>
-        <v>419532.31403446896</v>
+        <v>1658230.4902548357</v>
       </c>
       <c r="J48">
         <f t="shared" si="14"/>
-        <v>372917.61247508385</v>
+        <v>1473982.6580042983</v>
       </c>
       <c r="K48">
         <f t="shared" si="14"/>
-        <v>326302.91091569967</v>
+        <v>1289734.8257537612</v>
       </c>
       <c r="L48">
         <f t="shared" si="14"/>
-        <v>279688.2093563145</v>
+        <v>1105486.9935032236</v>
       </c>
       <c r="M48">
         <f t="shared" si="14"/>
-        <v>233073.50779692942</v>
+        <v>921239.16125268664</v>
       </c>
       <c r="N48" t="e">
         <f t="shared" si="14"/>
